--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9815571680872172</v>
+        <v>0.9815571680872179</v>
       </c>
       <c r="D2">
-        <v>1.003107347332045</v>
+        <v>1.003107347332046</v>
       </c>
       <c r="E2">
-        <v>0.9853823255254098</v>
+        <v>0.9853823255254102</v>
       </c>
       <c r="F2">
-        <v>0.9372790318296044</v>
+        <v>0.9372790318296041</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>1.004303850467114</v>
       </c>
       <c r="K2">
-        <v>1.014523560958279</v>
+        <v>1.01452356095828</v>
       </c>
       <c r="L2">
-        <v>0.9970491354944261</v>
+        <v>0.9970491354944264</v>
       </c>
       <c r="M2">
         <v>0.9496873164084751</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900603071081172</v>
+        <v>0.9900603071081165</v>
       </c>
       <c r="D3">
         <v>1.009412260125827</v>
       </c>
       <c r="E3">
-        <v>0.9932551945801218</v>
+        <v>0.9932551945801213</v>
       </c>
       <c r="F3">
-        <v>0.9513096972323056</v>
+        <v>0.9513096972323054</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03958856557634</v>
       </c>
       <c r="J3">
-        <v>1.010825655247433</v>
+        <v>1.010825655247432</v>
       </c>
       <c r="K3">
         <v>1.019926109344083</v>
       </c>
       <c r="L3">
-        <v>1.003975110152693</v>
+        <v>1.003975110152692</v>
       </c>
       <c r="M3">
-        <v>0.9626059688981974</v>
+        <v>0.9626059688981971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9953438527185486</v>
+        <v>0.9953438527185483</v>
       </c>
       <c r="D4">
-        <v>1.013331602355279</v>
+        <v>1.013331602355278</v>
       </c>
       <c r="E4">
-        <v>0.998142977251985</v>
+        <v>0.9981429772519843</v>
       </c>
       <c r="F4">
-        <v>0.959963541113707</v>
+        <v>0.9599635411137061</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041420942475975</v>
       </c>
       <c r="J4">
-        <v>1.014867417825654</v>
+        <v>1.014867417825653</v>
       </c>
       <c r="K4">
-        <v>1.023271745973171</v>
+        <v>1.02327174597317</v>
       </c>
       <c r="L4">
         <v>1.008263866694715</v>
       </c>
       <c r="M4">
-        <v>0.9705704585353858</v>
+        <v>0.9705704585353848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9975167202236226</v>
+        <v>0.9975167202236221</v>
       </c>
       <c r="D5">
         <v>1.014943705008119</v>
@@ -544,7 +544,7 @@
         <v>1.000152248703382</v>
       </c>
       <c r="F5">
-        <v>0.9635094307284349</v>
+        <v>0.9635094307284353</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.016527079520271</v>
       </c>
       <c r="K5">
-        <v>1.024644893361161</v>
+        <v>1.02464489336116</v>
       </c>
       <c r="L5">
-        <v>1.010024282485096</v>
+        <v>1.010024282485095</v>
       </c>
       <c r="M5">
-        <v>0.9738329313848394</v>
+        <v>0.9738329313848397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978788262530452</v>
+        <v>0.9978788262530459</v>
       </c>
       <c r="D6">
-        <v>1.015212371954469</v>
+        <v>1.01521237195447</v>
       </c>
       <c r="E6">
         <v>1.000487046278836</v>
       </c>
       <c r="F6">
-        <v>0.964099646445937</v>
+        <v>0.9640996464459374</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042294685302819</v>
       </c>
       <c r="J6">
-        <v>1.01680351287353</v>
+        <v>1.016803512873531</v>
       </c>
       <c r="K6">
-        <v>1.02487356385171</v>
+        <v>1.024873563851711</v>
       </c>
       <c r="L6">
         <v>1.010317462506613</v>
       </c>
       <c r="M6">
-        <v>0.9743759128271261</v>
+        <v>0.9743759128271263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9953730717165564</v>
+        <v>0.9953730717165575</v>
       </c>
       <c r="D7">
-        <v>1.013353279754958</v>
+        <v>1.013353279754959</v>
       </c>
       <c r="E7">
-        <v>0.9981699994797442</v>
+        <v>0.9981699994797453</v>
       </c>
       <c r="F7">
-        <v>0.9600112721421799</v>
+        <v>0.9600112721421825</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041431034104562</v>
       </c>
       <c r="J7">
-        <v>1.01488974559624</v>
+        <v>1.014889745596241</v>
       </c>
       <c r="K7">
-        <v>1.023290221933907</v>
+        <v>1.023290221933908</v>
       </c>
       <c r="L7">
-        <v>1.008287552380701</v>
+        <v>1.008287552380702</v>
       </c>
       <c r="M7">
-        <v>0.970614378445506</v>
+        <v>0.9706143784455084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844786707695601</v>
+        <v>0.9844786707695585</v>
       </c>
       <c r="D8">
-        <v>1.00527313357198</v>
+        <v>1.005273133571979</v>
       </c>
       <c r="E8">
-        <v>0.988088265821267</v>
+        <v>0.9880882658212653</v>
       </c>
       <c r="F8">
-        <v>0.9421149776434697</v>
+        <v>0.9421149776434684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037637425965255</v>
+        <v>1.037637425965254</v>
       </c>
       <c r="J8">
-        <v>1.00654689845456</v>
+        <v>1.006546898454558</v>
       </c>
       <c r="K8">
-        <v>1.016382147554658</v>
+        <v>1.016382147554657</v>
       </c>
       <c r="L8">
-        <v>0.9994320438357746</v>
+        <v>0.9994320438357729</v>
       </c>
       <c r="M8">
-        <v>0.9541406485690255</v>
+        <v>0.9541406485690238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633941788980589</v>
+        <v>0.9633941788980586</v>
       </c>
       <c r="D9">
-        <v>0.9896568825166855</v>
+        <v>0.9896568825166853</v>
       </c>
       <c r="E9">
-        <v>0.9685323803295215</v>
+        <v>0.9685323803295212</v>
       </c>
       <c r="F9">
-        <v>0.9067982533885387</v>
+        <v>0.906798253388539</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030146128639715</v>
       </c>
       <c r="J9">
-        <v>0.9903092704584706</v>
+        <v>0.9903092704584701</v>
       </c>
       <c r="K9">
         <v>1.00292002864189</v>
       </c>
       <c r="L9">
-        <v>0.9821575000263922</v>
+        <v>0.9821575000263918</v>
       </c>
       <c r="M9">
-        <v>0.9216090852981389</v>
+        <v>0.921609085298139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476975102074624</v>
+        <v>0.947697510207463</v>
       </c>
       <c r="D10">
-        <v>0.9780584753833675</v>
+        <v>0.9780584753833684</v>
       </c>
       <c r="E10">
-        <v>0.9539235281344323</v>
+        <v>0.9539235281344325</v>
       </c>
       <c r="F10">
-        <v>0.8797561104484479</v>
+        <v>0.8797561104484478</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024468569100096</v>
       </c>
       <c r="J10">
-        <v>0.9781517440850768</v>
+        <v>0.9781517440850775</v>
       </c>
       <c r="K10">
-        <v>0.9928355230699369</v>
+        <v>0.9928355230699376</v>
       </c>
       <c r="L10">
-        <v>0.9691777124087384</v>
+        <v>0.9691777124087387</v>
       </c>
       <c r="M10">
-        <v>0.8966984077291751</v>
+        <v>0.8966984077291753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9403978948953716</v>
+        <v>0.9403978948953708</v>
       </c>
       <c r="D11">
-        <v>0.9726745680554107</v>
+        <v>0.9726745680554099</v>
       </c>
       <c r="E11">
-        <v>0.947110875317839</v>
+        <v>0.9471108753178381</v>
       </c>
       <c r="F11">
-        <v>0.866907842253138</v>
+        <v>0.8669078422531367</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021804688842357</v>
       </c>
       <c r="J11">
-        <v>0.9724790505325045</v>
+        <v>0.9724790505325035</v>
       </c>
       <c r="K11">
-        <v>0.9881308795781337</v>
+        <v>0.9881308795781329</v>
       </c>
       <c r="L11">
-        <v>0.9631042262595321</v>
+        <v>0.9631042262595313</v>
       </c>
       <c r="M11">
-        <v>0.8848673728428805</v>
+        <v>0.8848673728428795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375978702011144</v>
+        <v>0.9375978702011126</v>
       </c>
       <c r="D12">
-        <v>0.9706111905781809</v>
+        <v>0.9706111905781797</v>
       </c>
       <c r="E12">
-        <v>0.9444939154204884</v>
+        <v>0.9444939154204868</v>
       </c>
       <c r="F12">
-        <v>0.8619270319417168</v>
+        <v>0.8619270319417147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020779335775957</v>
+        <v>1.020779335775956</v>
       </c>
       <c r="J12">
-        <v>0.9702999158934482</v>
+        <v>0.9702999158934469</v>
       </c>
       <c r="K12">
-        <v>0.9863239565686877</v>
+        <v>0.9863239565686863</v>
       </c>
       <c r="L12">
-        <v>0.9607678125899615</v>
+        <v>0.9607678125899598</v>
       </c>
       <c r="M12">
-        <v>0.8802821736624019</v>
+        <v>0.8802821736624</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9382027470218911</v>
+        <v>0.9382027470218927</v>
       </c>
       <c r="D13">
-        <v>0.971056845499348</v>
+        <v>0.9710568454993492</v>
       </c>
       <c r="E13">
-        <v>0.9450594312124854</v>
+        <v>0.9450594312124869</v>
       </c>
       <c r="F13">
-        <v>0.8630056004245671</v>
+        <v>0.8630056004245695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021000997126246</v>
+        <v>1.021000997126247</v>
       </c>
       <c r="J13">
-        <v>0.9707708143064331</v>
+        <v>0.9707708143064349</v>
       </c>
       <c r="K13">
-        <v>0.9867144026543593</v>
+        <v>0.9867144026543604</v>
       </c>
       <c r="L13">
-        <v>0.961272861980479</v>
+        <v>0.9612728619804806</v>
       </c>
       <c r="M13">
-        <v>0.8812750061919172</v>
+        <v>0.8812750061919195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.940168341026782</v>
+        <v>0.9401683410267792</v>
       </c>
       <c r="D14">
-        <v>0.9725053680010201</v>
+        <v>0.9725053680010176</v>
       </c>
       <c r="E14">
-        <v>0.9468964110900053</v>
+        <v>0.9468964110900026</v>
       </c>
       <c r="F14">
-        <v>0.8665006388032487</v>
+        <v>0.8665006388032452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021720698739184</v>
+        <v>1.021720698739182</v>
       </c>
       <c r="J14">
-        <v>0.9723004654002668</v>
+        <v>0.9723004654002644</v>
       </c>
       <c r="K14">
-        <v>0.9879827896960034</v>
+        <v>0.9879827896960011</v>
       </c>
       <c r="L14">
-        <v>0.9629128237810207</v>
+        <v>0.9629128237810181</v>
       </c>
       <c r="M14">
-        <v>0.8844924828621091</v>
+        <v>0.8844924828621056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9413672101143998</v>
+        <v>0.9413672101143985</v>
       </c>
       <c r="D15">
-        <v>0.9733891081934684</v>
+        <v>0.9733891081934671</v>
       </c>
       <c r="E15">
-        <v>0.9480163162800839</v>
+        <v>0.9480163162800824</v>
       </c>
       <c r="F15">
-        <v>0.8686251061142343</v>
+        <v>0.868625106114232</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022159203300641</v>
       </c>
       <c r="J15">
-        <v>0.9732330144094501</v>
+        <v>0.9732330144094486</v>
       </c>
       <c r="K15">
-        <v>0.9887561115767679</v>
+        <v>0.9887561115767669</v>
       </c>
       <c r="L15">
-        <v>0.9639121643987058</v>
+        <v>0.9639121643987043</v>
       </c>
       <c r="M15">
-        <v>0.886448418796965</v>
+        <v>0.886448418796963</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9481703320228371</v>
+        <v>0.9481703320228381</v>
       </c>
       <c r="D16">
         <v>0.9784074377380156</v>
       </c>
       <c r="E16">
-        <v>0.9543643544451327</v>
+        <v>0.9543643544451333</v>
       </c>
       <c r="F16">
-        <v>0.8805818975377928</v>
+        <v>0.8805818975377935</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024640637694342</v>
       </c>
       <c r="J16">
-        <v>0.9785187730390391</v>
+        <v>0.9785187730390398</v>
       </c>
       <c r="K16">
-        <v>0.9931399513963121</v>
+        <v>0.9931399513963119</v>
       </c>
       <c r="L16">
-        <v>0.9695702668497728</v>
+        <v>0.9695702668497733</v>
       </c>
       <c r="M16">
-        <v>0.8974589507763389</v>
+        <v>0.8974589507763395</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9522949633908142</v>
+        <v>0.952294963390812</v>
       </c>
       <c r="D17">
-        <v>0.9814527170168397</v>
+        <v>0.9814527170168377</v>
       </c>
       <c r="E17">
-        <v>0.9582077030208025</v>
+        <v>0.9582077030208002</v>
       </c>
       <c r="F17">
-        <v>0.8877543704838633</v>
+        <v>0.8877543704838596</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026139052251392</v>
+        <v>1.026139052251391</v>
       </c>
       <c r="J17">
-        <v>0.9817183995053277</v>
+        <v>0.9817183995053254</v>
       </c>
       <c r="K17">
-        <v>0.9957939549294291</v>
+        <v>0.995793954929427</v>
       </c>
       <c r="L17">
-        <v>0.9729904531913179</v>
+        <v>0.9729904531913156</v>
       </c>
       <c r="M17">
-        <v>0.9040652846190805</v>
+        <v>0.9040652846190771</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546533147545914</v>
+        <v>0.9546533147545901</v>
       </c>
       <c r="D18">
-        <v>0.9831948104318755</v>
+        <v>0.9831948104318742</v>
       </c>
       <c r="E18">
-        <v>0.9604035461139205</v>
+        <v>0.9604035461139195</v>
       </c>
       <c r="F18">
-        <v>0.8918311016835138</v>
+        <v>0.8918311016835129</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026993627332983</v>
+        <v>1.026993627332982</v>
       </c>
       <c r="J18">
-        <v>0.9835461362589853</v>
+        <v>0.9835461362589841</v>
       </c>
       <c r="K18">
-        <v>0.9973100685426458</v>
+        <v>0.9973100685426446</v>
       </c>
       <c r="L18">
-        <v>0.9749426591975807</v>
+        <v>0.9749426591975795</v>
       </c>
       <c r="M18">
-        <v>0.907820599371285</v>
+        <v>0.9078205993712842</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,7 +1067,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9554497397644356</v>
+        <v>0.9554497397644351</v>
       </c>
       <c r="D19">
         <v>0.983783264005641</v>
@@ -1076,7 +1076,7 @@
         <v>0.9611448275950463</v>
       </c>
       <c r="F19">
-        <v>0.8932039859667977</v>
+        <v>0.8932039859667971</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027281850748518</v>
       </c>
       <c r="J19">
-        <v>0.9841630859389865</v>
+        <v>0.9841630859389862</v>
       </c>
       <c r="K19">
-        <v>0.9978218341171605</v>
+        <v>0.9978218341171604</v>
       </c>
       <c r="L19">
-        <v>0.9756013831060554</v>
+        <v>0.9756013831060552</v>
       </c>
       <c r="M19">
-        <v>0.9090852917288633</v>
+        <v>0.9090852917288627</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9518574232953305</v>
+        <v>0.9518574232953291</v>
       </c>
       <c r="D20">
-        <v>0.9811295798734229</v>
+        <v>0.9811295798734219</v>
       </c>
       <c r="E20">
-        <v>0.9578001814736145</v>
+        <v>0.9578001814736129</v>
       </c>
       <c r="F20">
-        <v>0.8869961161146616</v>
+        <v>0.8869961161146587</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025980327489233</v>
       </c>
       <c r="J20">
-        <v>0.9813791651195778</v>
+        <v>0.9813791651195766</v>
       </c>
       <c r="K20">
-        <v>0.9955125620303413</v>
+        <v>0.9955125620303402</v>
       </c>
       <c r="L20">
-        <v>0.9726279975161961</v>
+        <v>0.9726279975161946</v>
       </c>
       <c r="M20">
-        <v>0.9033668389392276</v>
+        <v>0.9033668389392252</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9395920929944878</v>
+        <v>0.9395920929944873</v>
       </c>
       <c r="D21">
-        <v>0.9720806560763047</v>
+        <v>0.9720806560763049</v>
       </c>
       <c r="E21">
-        <v>0.9463579792071743</v>
+        <v>0.9463579792071737</v>
       </c>
       <c r="F21">
-        <v>0.8654775523361425</v>
+        <v>0.8654775523361419</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021509802245557</v>
+        <v>1.021509802245556</v>
       </c>
       <c r="J21">
-        <v>0.9718521117489748</v>
+        <v>0.9718521117489743</v>
       </c>
       <c r="K21">
-        <v>0.9876110033614709</v>
+        <v>0.987611003361471</v>
       </c>
       <c r="L21">
-        <v>0.9624322349803353</v>
+        <v>0.9624322349803347</v>
       </c>
       <c r="M21">
-        <v>0.8835506055822231</v>
+        <v>0.8835506055822224</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9313580490077005</v>
+        <v>0.9313580490076998</v>
       </c>
       <c r="D22">
-        <v>0.9660167517953345</v>
+        <v>0.9660167517953343</v>
       </c>
       <c r="E22">
-        <v>0.9386538077693571</v>
+        <v>0.9386538077693565</v>
       </c>
       <c r="F22">
-        <v>0.8507133099513228</v>
+        <v>0.8507133099513223</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018487787012021</v>
       </c>
       <c r="J22">
-        <v>0.9654373386726853</v>
+        <v>0.9654373386726848</v>
       </c>
       <c r="K22">
-        <v>0.9822928822419228</v>
+        <v>0.9822928822419223</v>
       </c>
       <c r="L22">
-        <v>0.9555470413483007</v>
+        <v>0.9555470413482999</v>
       </c>
       <c r="M22">
-        <v>0.8699623421809988</v>
+        <v>0.8699623421809982</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9357780340209256</v>
+        <v>0.9357780340209253</v>
       </c>
       <c r="D23">
-        <v>0.9692706839984135</v>
+        <v>0.969270683998413</v>
       </c>
       <c r="E23">
-        <v>0.9427918657369848</v>
+        <v>0.9427918657369841</v>
       </c>
       <c r="F23">
-        <v>0.858673233680827</v>
+        <v>0.8586732336808264</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020111926176663</v>
       </c>
       <c r="J23">
-        <v>0.9688826685690284</v>
+        <v>0.9688826685690279</v>
       </c>
       <c r="K23">
-        <v>0.9851489146696315</v>
+        <v>0.9851489146696309</v>
       </c>
       <c r="L23">
-        <v>0.9592472234883067</v>
+        <v>0.9592472234883059</v>
       </c>
       <c r="M23">
-        <v>0.8772872644423949</v>
+        <v>0.8772872644423941</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9520552746011226</v>
+        <v>0.9520552746011229</v>
       </c>
       <c r="D24">
         <v>0.9812756965581453</v>
       </c>
       <c r="E24">
-        <v>0.9579844638585177</v>
+        <v>0.9579844638585179</v>
       </c>
       <c r="F24">
-        <v>0.887339066154004</v>
+        <v>0.8873390661540045</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026052108043815</v>
       </c>
       <c r="J24">
-        <v>0.981532568899286</v>
+        <v>0.9815325688992863</v>
       </c>
       <c r="K24">
-        <v>0.9956398093931182</v>
+        <v>0.9956398093931186</v>
       </c>
       <c r="L24">
-        <v>0.9727919067929505</v>
+        <v>0.9727919067929508</v>
       </c>
       <c r="M24">
-        <v>0.9036827370592608</v>
+        <v>0.9036827370592612</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,31 +1295,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969102312906564</v>
+        <v>0.9691023129065639</v>
       </c>
       <c r="D25">
-        <v>0.993880998588316</v>
+        <v>0.9938809985883158</v>
       </c>
       <c r="E25">
-        <v>0.9738333600387273</v>
+        <v>0.9738333600387272</v>
       </c>
       <c r="F25">
-        <v>0.9164611089184862</v>
+        <v>0.9164611089184859</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032191145446952</v>
+        <v>1.032191145446951</v>
       </c>
       <c r="J25">
-        <v>0.9947162050574441</v>
+        <v>0.994716205057444</v>
       </c>
       <c r="K25">
         <v>1.00657505270578</v>
       </c>
       <c r="L25">
-        <v>0.986851931691195</v>
+        <v>0.9868519316911949</v>
       </c>
       <c r="M25">
         <v>0.930511269129604</v>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9815571680872179</v>
+        <v>0.9815571680872172</v>
       </c>
       <c r="D2">
-        <v>1.003107347332046</v>
+        <v>1.003107347332045</v>
       </c>
       <c r="E2">
-        <v>0.9853823255254102</v>
+        <v>0.9853823255254098</v>
       </c>
       <c r="F2">
-        <v>0.9372790318296041</v>
+        <v>0.9372790318296044</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>1.004303850467114</v>
       </c>
       <c r="K2">
-        <v>1.01452356095828</v>
+        <v>1.014523560958279</v>
       </c>
       <c r="L2">
-        <v>0.9970491354944264</v>
+        <v>0.9970491354944261</v>
       </c>
       <c r="M2">
         <v>0.9496873164084751</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900603071081165</v>
+        <v>0.9900603071081172</v>
       </c>
       <c r="D3">
         <v>1.009412260125827</v>
       </c>
       <c r="E3">
-        <v>0.9932551945801213</v>
+        <v>0.9932551945801218</v>
       </c>
       <c r="F3">
-        <v>0.9513096972323054</v>
+        <v>0.9513096972323056</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03958856557634</v>
       </c>
       <c r="J3">
-        <v>1.010825655247432</v>
+        <v>1.010825655247433</v>
       </c>
       <c r="K3">
         <v>1.019926109344083</v>
       </c>
       <c r="L3">
-        <v>1.003975110152692</v>
+        <v>1.003975110152693</v>
       </c>
       <c r="M3">
-        <v>0.9626059688981971</v>
+        <v>0.9626059688981974</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9953438527185483</v>
+        <v>0.9953438527185486</v>
       </c>
       <c r="D4">
-        <v>1.013331602355278</v>
+        <v>1.013331602355279</v>
       </c>
       <c r="E4">
-        <v>0.9981429772519843</v>
+        <v>0.998142977251985</v>
       </c>
       <c r="F4">
-        <v>0.9599635411137061</v>
+        <v>0.959963541113707</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041420942475975</v>
       </c>
       <c r="J4">
-        <v>1.014867417825653</v>
+        <v>1.014867417825654</v>
       </c>
       <c r="K4">
-        <v>1.02327174597317</v>
+        <v>1.023271745973171</v>
       </c>
       <c r="L4">
         <v>1.008263866694715</v>
       </c>
       <c r="M4">
-        <v>0.9705704585353848</v>
+        <v>0.9705704585353858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9975167202236221</v>
+        <v>0.9975167202236226</v>
       </c>
       <c r="D5">
         <v>1.014943705008119</v>
@@ -544,7 +544,7 @@
         <v>1.000152248703382</v>
       </c>
       <c r="F5">
-        <v>0.9635094307284353</v>
+        <v>0.9635094307284349</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.016527079520271</v>
       </c>
       <c r="K5">
-        <v>1.02464489336116</v>
+        <v>1.024644893361161</v>
       </c>
       <c r="L5">
-        <v>1.010024282485095</v>
+        <v>1.010024282485096</v>
       </c>
       <c r="M5">
-        <v>0.9738329313848397</v>
+        <v>0.9738329313848394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978788262530459</v>
+        <v>0.9978788262530452</v>
       </c>
       <c r="D6">
-        <v>1.01521237195447</v>
+        <v>1.015212371954469</v>
       </c>
       <c r="E6">
         <v>1.000487046278836</v>
       </c>
       <c r="F6">
-        <v>0.9640996464459374</v>
+        <v>0.964099646445937</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042294685302819</v>
       </c>
       <c r="J6">
-        <v>1.016803512873531</v>
+        <v>1.01680351287353</v>
       </c>
       <c r="K6">
-        <v>1.024873563851711</v>
+        <v>1.02487356385171</v>
       </c>
       <c r="L6">
         <v>1.010317462506613</v>
       </c>
       <c r="M6">
-        <v>0.9743759128271263</v>
+        <v>0.9743759128271261</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9953730717165575</v>
+        <v>0.9953730717165564</v>
       </c>
       <c r="D7">
-        <v>1.013353279754959</v>
+        <v>1.013353279754958</v>
       </c>
       <c r="E7">
-        <v>0.9981699994797453</v>
+        <v>0.9981699994797442</v>
       </c>
       <c r="F7">
-        <v>0.9600112721421825</v>
+        <v>0.9600112721421799</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041431034104562</v>
       </c>
       <c r="J7">
-        <v>1.014889745596241</v>
+        <v>1.01488974559624</v>
       </c>
       <c r="K7">
-        <v>1.023290221933908</v>
+        <v>1.023290221933907</v>
       </c>
       <c r="L7">
-        <v>1.008287552380702</v>
+        <v>1.008287552380701</v>
       </c>
       <c r="M7">
-        <v>0.9706143784455084</v>
+        <v>0.970614378445506</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844786707695585</v>
+        <v>0.9844786707695601</v>
       </c>
       <c r="D8">
-        <v>1.005273133571979</v>
+        <v>1.00527313357198</v>
       </c>
       <c r="E8">
-        <v>0.9880882658212653</v>
+        <v>0.988088265821267</v>
       </c>
       <c r="F8">
-        <v>0.9421149776434684</v>
+        <v>0.9421149776434697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037637425965254</v>
+        <v>1.037637425965255</v>
       </c>
       <c r="J8">
-        <v>1.006546898454558</v>
+        <v>1.00654689845456</v>
       </c>
       <c r="K8">
-        <v>1.016382147554657</v>
+        <v>1.016382147554658</v>
       </c>
       <c r="L8">
-        <v>0.9994320438357729</v>
+        <v>0.9994320438357746</v>
       </c>
       <c r="M8">
-        <v>0.9541406485690238</v>
+        <v>0.9541406485690255</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633941788980586</v>
+        <v>0.9633941788980589</v>
       </c>
       <c r="D9">
-        <v>0.9896568825166853</v>
+        <v>0.9896568825166855</v>
       </c>
       <c r="E9">
-        <v>0.9685323803295212</v>
+        <v>0.9685323803295215</v>
       </c>
       <c r="F9">
-        <v>0.906798253388539</v>
+        <v>0.9067982533885387</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030146128639715</v>
       </c>
       <c r="J9">
-        <v>0.9903092704584701</v>
+        <v>0.9903092704584706</v>
       </c>
       <c r="K9">
         <v>1.00292002864189</v>
       </c>
       <c r="L9">
-        <v>0.9821575000263918</v>
+        <v>0.9821575000263922</v>
       </c>
       <c r="M9">
-        <v>0.921609085298139</v>
+        <v>0.9216090852981389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.947697510207463</v>
+        <v>0.9476975102074624</v>
       </c>
       <c r="D10">
-        <v>0.9780584753833684</v>
+        <v>0.9780584753833675</v>
       </c>
       <c r="E10">
-        <v>0.9539235281344325</v>
+        <v>0.9539235281344323</v>
       </c>
       <c r="F10">
-        <v>0.8797561104484478</v>
+        <v>0.8797561104484479</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024468569100096</v>
       </c>
       <c r="J10">
-        <v>0.9781517440850775</v>
+        <v>0.9781517440850768</v>
       </c>
       <c r="K10">
-        <v>0.9928355230699376</v>
+        <v>0.9928355230699369</v>
       </c>
       <c r="L10">
-        <v>0.9691777124087387</v>
+        <v>0.9691777124087384</v>
       </c>
       <c r="M10">
-        <v>0.8966984077291753</v>
+        <v>0.8966984077291751</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9403978948953708</v>
+        <v>0.9403978948953716</v>
       </c>
       <c r="D11">
-        <v>0.9726745680554099</v>
+        <v>0.9726745680554107</v>
       </c>
       <c r="E11">
-        <v>0.9471108753178381</v>
+        <v>0.947110875317839</v>
       </c>
       <c r="F11">
-        <v>0.8669078422531367</v>
+        <v>0.866907842253138</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021804688842357</v>
       </c>
       <c r="J11">
-        <v>0.9724790505325035</v>
+        <v>0.9724790505325045</v>
       </c>
       <c r="K11">
-        <v>0.9881308795781329</v>
+        <v>0.9881308795781337</v>
       </c>
       <c r="L11">
-        <v>0.9631042262595313</v>
+        <v>0.9631042262595321</v>
       </c>
       <c r="M11">
-        <v>0.8848673728428795</v>
+        <v>0.8848673728428805</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375978702011126</v>
+        <v>0.9375978702011144</v>
       </c>
       <c r="D12">
-        <v>0.9706111905781797</v>
+        <v>0.9706111905781809</v>
       </c>
       <c r="E12">
-        <v>0.9444939154204868</v>
+        <v>0.9444939154204884</v>
       </c>
       <c r="F12">
-        <v>0.8619270319417147</v>
+        <v>0.8619270319417168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020779335775956</v>
+        <v>1.020779335775957</v>
       </c>
       <c r="J12">
-        <v>0.9702999158934469</v>
+        <v>0.9702999158934482</v>
       </c>
       <c r="K12">
-        <v>0.9863239565686863</v>
+        <v>0.9863239565686877</v>
       </c>
       <c r="L12">
-        <v>0.9607678125899598</v>
+        <v>0.9607678125899615</v>
       </c>
       <c r="M12">
-        <v>0.8802821736624</v>
+        <v>0.8802821736624019</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9382027470218927</v>
+        <v>0.9382027470218911</v>
       </c>
       <c r="D13">
-        <v>0.9710568454993492</v>
+        <v>0.971056845499348</v>
       </c>
       <c r="E13">
-        <v>0.9450594312124869</v>
+        <v>0.9450594312124854</v>
       </c>
       <c r="F13">
-        <v>0.8630056004245695</v>
+        <v>0.8630056004245671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021000997126247</v>
+        <v>1.021000997126246</v>
       </c>
       <c r="J13">
-        <v>0.9707708143064349</v>
+        <v>0.9707708143064331</v>
       </c>
       <c r="K13">
-        <v>0.9867144026543604</v>
+        <v>0.9867144026543593</v>
       </c>
       <c r="L13">
-        <v>0.9612728619804806</v>
+        <v>0.961272861980479</v>
       </c>
       <c r="M13">
-        <v>0.8812750061919195</v>
+        <v>0.8812750061919172</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9401683410267792</v>
+        <v>0.940168341026782</v>
       </c>
       <c r="D14">
-        <v>0.9725053680010176</v>
+        <v>0.9725053680010201</v>
       </c>
       <c r="E14">
-        <v>0.9468964110900026</v>
+        <v>0.9468964110900053</v>
       </c>
       <c r="F14">
-        <v>0.8665006388032452</v>
+        <v>0.8665006388032487</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021720698739182</v>
+        <v>1.021720698739184</v>
       </c>
       <c r="J14">
-        <v>0.9723004654002644</v>
+        <v>0.9723004654002668</v>
       </c>
       <c r="K14">
-        <v>0.9879827896960011</v>
+        <v>0.9879827896960034</v>
       </c>
       <c r="L14">
-        <v>0.9629128237810181</v>
+        <v>0.9629128237810207</v>
       </c>
       <c r="M14">
-        <v>0.8844924828621056</v>
+        <v>0.8844924828621091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9413672101143985</v>
+        <v>0.9413672101143998</v>
       </c>
       <c r="D15">
-        <v>0.9733891081934671</v>
+        <v>0.9733891081934684</v>
       </c>
       <c r="E15">
-        <v>0.9480163162800824</v>
+        <v>0.9480163162800839</v>
       </c>
       <c r="F15">
-        <v>0.868625106114232</v>
+        <v>0.8686251061142343</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022159203300641</v>
       </c>
       <c r="J15">
-        <v>0.9732330144094486</v>
+        <v>0.9732330144094501</v>
       </c>
       <c r="K15">
-        <v>0.9887561115767669</v>
+        <v>0.9887561115767679</v>
       </c>
       <c r="L15">
-        <v>0.9639121643987043</v>
+        <v>0.9639121643987058</v>
       </c>
       <c r="M15">
-        <v>0.886448418796963</v>
+        <v>0.886448418796965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9481703320228381</v>
+        <v>0.9481703320228371</v>
       </c>
       <c r="D16">
         <v>0.9784074377380156</v>
       </c>
       <c r="E16">
-        <v>0.9543643544451333</v>
+        <v>0.9543643544451327</v>
       </c>
       <c r="F16">
-        <v>0.8805818975377935</v>
+        <v>0.8805818975377928</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024640637694342</v>
       </c>
       <c r="J16">
-        <v>0.9785187730390398</v>
+        <v>0.9785187730390391</v>
       </c>
       <c r="K16">
-        <v>0.9931399513963119</v>
+        <v>0.9931399513963121</v>
       </c>
       <c r="L16">
-        <v>0.9695702668497733</v>
+        <v>0.9695702668497728</v>
       </c>
       <c r="M16">
-        <v>0.8974589507763395</v>
+        <v>0.8974589507763389</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.952294963390812</v>
+        <v>0.9522949633908142</v>
       </c>
       <c r="D17">
-        <v>0.9814527170168377</v>
+        <v>0.9814527170168397</v>
       </c>
       <c r="E17">
-        <v>0.9582077030208002</v>
+        <v>0.9582077030208025</v>
       </c>
       <c r="F17">
-        <v>0.8877543704838596</v>
+        <v>0.8877543704838633</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026139052251391</v>
+        <v>1.026139052251392</v>
       </c>
       <c r="J17">
-        <v>0.9817183995053254</v>
+        <v>0.9817183995053277</v>
       </c>
       <c r="K17">
-        <v>0.995793954929427</v>
+        <v>0.9957939549294291</v>
       </c>
       <c r="L17">
-        <v>0.9729904531913156</v>
+        <v>0.9729904531913179</v>
       </c>
       <c r="M17">
-        <v>0.9040652846190771</v>
+        <v>0.9040652846190805</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546533147545901</v>
+        <v>0.9546533147545914</v>
       </c>
       <c r="D18">
-        <v>0.9831948104318742</v>
+        <v>0.9831948104318755</v>
       </c>
       <c r="E18">
-        <v>0.9604035461139195</v>
+        <v>0.9604035461139205</v>
       </c>
       <c r="F18">
-        <v>0.8918311016835129</v>
+        <v>0.8918311016835138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026993627332982</v>
+        <v>1.026993627332983</v>
       </c>
       <c r="J18">
-        <v>0.9835461362589841</v>
+        <v>0.9835461362589853</v>
       </c>
       <c r="K18">
-        <v>0.9973100685426446</v>
+        <v>0.9973100685426458</v>
       </c>
       <c r="L18">
-        <v>0.9749426591975795</v>
+        <v>0.9749426591975807</v>
       </c>
       <c r="M18">
-        <v>0.9078205993712842</v>
+        <v>0.907820599371285</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,7 +1067,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9554497397644351</v>
+        <v>0.9554497397644356</v>
       </c>
       <c r="D19">
         <v>0.983783264005641</v>
@@ -1076,7 +1076,7 @@
         <v>0.9611448275950463</v>
       </c>
       <c r="F19">
-        <v>0.8932039859667971</v>
+        <v>0.8932039859667977</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027281850748518</v>
       </c>
       <c r="J19">
-        <v>0.9841630859389862</v>
+        <v>0.9841630859389865</v>
       </c>
       <c r="K19">
-        <v>0.9978218341171604</v>
+        <v>0.9978218341171605</v>
       </c>
       <c r="L19">
-        <v>0.9756013831060552</v>
+        <v>0.9756013831060554</v>
       </c>
       <c r="M19">
-        <v>0.9090852917288627</v>
+        <v>0.9090852917288633</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9518574232953291</v>
+        <v>0.9518574232953305</v>
       </c>
       <c r="D20">
-        <v>0.9811295798734219</v>
+        <v>0.9811295798734229</v>
       </c>
       <c r="E20">
-        <v>0.9578001814736129</v>
+        <v>0.9578001814736145</v>
       </c>
       <c r="F20">
-        <v>0.8869961161146587</v>
+        <v>0.8869961161146616</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025980327489233</v>
       </c>
       <c r="J20">
-        <v>0.9813791651195766</v>
+        <v>0.9813791651195778</v>
       </c>
       <c r="K20">
-        <v>0.9955125620303402</v>
+        <v>0.9955125620303413</v>
       </c>
       <c r="L20">
-        <v>0.9726279975161946</v>
+        <v>0.9726279975161961</v>
       </c>
       <c r="M20">
-        <v>0.9033668389392252</v>
+        <v>0.9033668389392276</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9395920929944873</v>
+        <v>0.9395920929944878</v>
       </c>
       <c r="D21">
-        <v>0.9720806560763049</v>
+        <v>0.9720806560763047</v>
       </c>
       <c r="E21">
-        <v>0.9463579792071737</v>
+        <v>0.9463579792071743</v>
       </c>
       <c r="F21">
-        <v>0.8654775523361419</v>
+        <v>0.8654775523361425</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021509802245556</v>
+        <v>1.021509802245557</v>
       </c>
       <c r="J21">
-        <v>0.9718521117489743</v>
+        <v>0.9718521117489748</v>
       </c>
       <c r="K21">
-        <v>0.987611003361471</v>
+        <v>0.9876110033614709</v>
       </c>
       <c r="L21">
-        <v>0.9624322349803347</v>
+        <v>0.9624322349803353</v>
       </c>
       <c r="M21">
-        <v>0.8835506055822224</v>
+        <v>0.8835506055822231</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9313580490076998</v>
+        <v>0.9313580490077005</v>
       </c>
       <c r="D22">
-        <v>0.9660167517953343</v>
+        <v>0.9660167517953345</v>
       </c>
       <c r="E22">
-        <v>0.9386538077693565</v>
+        <v>0.9386538077693571</v>
       </c>
       <c r="F22">
-        <v>0.8507133099513223</v>
+        <v>0.8507133099513228</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018487787012021</v>
       </c>
       <c r="J22">
-        <v>0.9654373386726848</v>
+        <v>0.9654373386726853</v>
       </c>
       <c r="K22">
-        <v>0.9822928822419223</v>
+        <v>0.9822928822419228</v>
       </c>
       <c r="L22">
-        <v>0.9555470413482999</v>
+        <v>0.9555470413483007</v>
       </c>
       <c r="M22">
-        <v>0.8699623421809982</v>
+        <v>0.8699623421809988</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9357780340209253</v>
+        <v>0.9357780340209256</v>
       </c>
       <c r="D23">
-        <v>0.969270683998413</v>
+        <v>0.9692706839984135</v>
       </c>
       <c r="E23">
-        <v>0.9427918657369841</v>
+        <v>0.9427918657369848</v>
       </c>
       <c r="F23">
-        <v>0.8586732336808264</v>
+        <v>0.858673233680827</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020111926176663</v>
       </c>
       <c r="J23">
-        <v>0.9688826685690279</v>
+        <v>0.9688826685690284</v>
       </c>
       <c r="K23">
-        <v>0.9851489146696309</v>
+        <v>0.9851489146696315</v>
       </c>
       <c r="L23">
-        <v>0.9592472234883059</v>
+        <v>0.9592472234883067</v>
       </c>
       <c r="M23">
-        <v>0.8772872644423941</v>
+        <v>0.8772872644423949</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9520552746011229</v>
+        <v>0.9520552746011226</v>
       </c>
       <c r="D24">
         <v>0.9812756965581453</v>
       </c>
       <c r="E24">
-        <v>0.9579844638585179</v>
+        <v>0.9579844638585177</v>
       </c>
       <c r="F24">
-        <v>0.8873390661540045</v>
+        <v>0.887339066154004</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026052108043815</v>
       </c>
       <c r="J24">
-        <v>0.9815325688992863</v>
+        <v>0.981532568899286</v>
       </c>
       <c r="K24">
-        <v>0.9956398093931186</v>
+        <v>0.9956398093931182</v>
       </c>
       <c r="L24">
-        <v>0.9727919067929508</v>
+        <v>0.9727919067929505</v>
       </c>
       <c r="M24">
-        <v>0.9036827370592612</v>
+        <v>0.9036827370592608</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,31 +1295,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9691023129065639</v>
+        <v>0.969102312906564</v>
       </c>
       <c r="D25">
-        <v>0.9938809985883158</v>
+        <v>0.993880998588316</v>
       </c>
       <c r="E25">
-        <v>0.9738333600387272</v>
+        <v>0.9738333600387273</v>
       </c>
       <c r="F25">
-        <v>0.9164611089184859</v>
+        <v>0.9164611089184862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032191145446951</v>
+        <v>1.032191145446952</v>
       </c>
       <c r="J25">
-        <v>0.994716205057444</v>
+        <v>0.9947162050574441</v>
       </c>
       <c r="K25">
         <v>1.00657505270578</v>
       </c>
       <c r="L25">
-        <v>0.9868519316911949</v>
+        <v>0.986851931691195</v>
       </c>
       <c r="M25">
         <v>0.930511269129604</v>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9815571680872172</v>
+        <v>0.9837722127194189</v>
       </c>
       <c r="D2">
-        <v>1.003107347332045</v>
+        <v>1.004807189227087</v>
       </c>
       <c r="E2">
-        <v>0.9853823255254098</v>
+        <v>0.9873195445693357</v>
       </c>
       <c r="F2">
-        <v>0.9372790318296044</v>
+        <v>0.9394477106294082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036610322813529</v>
+        <v>1.037571410810162</v>
       </c>
       <c r="J2">
-        <v>1.004303850467114</v>
+        <v>1.006449369802028</v>
       </c>
       <c r="K2">
-        <v>1.014523560958279</v>
+        <v>1.016199956081144</v>
       </c>
       <c r="L2">
-        <v>0.9970491354944261</v>
+        <v>0.9989584114766992</v>
       </c>
       <c r="M2">
-        <v>0.9496873164084751</v>
+        <v>0.9518204664940086</v>
+      </c>
+      <c r="N2">
+        <v>1.007878643348504</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900603071081172</v>
+        <v>0.9922536445347453</v>
       </c>
       <c r="D3">
-        <v>1.009412260125827</v>
+        <v>1.011098322323658</v>
       </c>
       <c r="E3">
-        <v>0.9932551945801218</v>
+        <v>0.9951723252349215</v>
       </c>
       <c r="F3">
-        <v>0.9513096972323056</v>
+        <v>0.9534267751358441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03958856557634</v>
+        <v>1.040543150496262</v>
       </c>
       <c r="J3">
-        <v>1.010825655247433</v>
+        <v>1.012957733926234</v>
       </c>
       <c r="K3">
-        <v>1.019926109344083</v>
+        <v>1.021591140487121</v>
       </c>
       <c r="L3">
-        <v>1.003975110152693</v>
+        <v>1.005867352033017</v>
       </c>
       <c r="M3">
-        <v>0.9626059688981974</v>
+        <v>0.964692417736969</v>
+      </c>
+      <c r="N3">
+        <v>1.014396250096285</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9953438527185486</v>
+        <v>0.9975248416105038</v>
       </c>
       <c r="D4">
-        <v>1.013331602355279</v>
+        <v>1.015009897297412</v>
       </c>
       <c r="E4">
-        <v>0.998142977251985</v>
+        <v>1.000048742482612</v>
       </c>
       <c r="F4">
-        <v>0.959963541113707</v>
+        <v>0.9620514187324012</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041420942475975</v>
+        <v>1.04237194456112</v>
       </c>
       <c r="J4">
-        <v>1.014867417825654</v>
+        <v>1.016992074812039</v>
       </c>
       <c r="K4">
-        <v>1.023271745973171</v>
+        <v>1.024930479497899</v>
       </c>
       <c r="L4">
-        <v>1.008263866694715</v>
+        <v>1.010146579261127</v>
       </c>
       <c r="M4">
-        <v>0.9705704585353858</v>
+        <v>0.972630506169566</v>
+      </c>
+      <c r="N4">
+        <v>1.018436320208894</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9975167202236226</v>
+        <v>0.9996928730101856</v>
       </c>
       <c r="D5">
-        <v>1.014943705008119</v>
+        <v>1.016618975097802</v>
       </c>
       <c r="E5">
-        <v>1.000152248703382</v>
+        <v>1.002053575799426</v>
       </c>
       <c r="F5">
-        <v>0.9635094307284349</v>
+        <v>0.9655858896804347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042170099898332</v>
+        <v>1.043119726842634</v>
       </c>
       <c r="J5">
-        <v>1.016527079520271</v>
+        <v>1.018648882033037</v>
       </c>
       <c r="K5">
-        <v>1.024644893361161</v>
+        <v>1.026301199940242</v>
       </c>
       <c r="L5">
-        <v>1.010024282485096</v>
+        <v>1.011903299261618</v>
       </c>
       <c r="M5">
-        <v>0.9738329313848394</v>
+        <v>0.9758826622524572</v>
+      </c>
+      <c r="N5">
+        <v>1.020095480286184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978788262530452</v>
+        <v>1.000054186560483</v>
       </c>
       <c r="D6">
-        <v>1.015212371954469</v>
+        <v>1.016887147379923</v>
       </c>
       <c r="E6">
-        <v>1.000487046278836</v>
+        <v>1.002387646826356</v>
       </c>
       <c r="F6">
-        <v>0.964099646445937</v>
+        <v>0.9661742347547425</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042294685302819</v>
+        <v>1.043244088569556</v>
       </c>
       <c r="J6">
-        <v>1.01680351287353</v>
+        <v>1.018924850674068</v>
       </c>
       <c r="K6">
-        <v>1.02487356385171</v>
+        <v>1.026529475052951</v>
       </c>
       <c r="L6">
-        <v>1.010317462506613</v>
+        <v>1.01219587574798</v>
       </c>
       <c r="M6">
-        <v>0.9743759128271261</v>
+        <v>0.9764239540280748</v>
+      </c>
+      <c r="N6">
+        <v>1.020371840834339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9953730717165564</v>
+        <v>0.9975539946527657</v>
       </c>
       <c r="D7">
-        <v>1.013353279754958</v>
+        <v>1.015031533374563</v>
       </c>
       <c r="E7">
-        <v>0.9981699994797442</v>
+        <v>1.000075704132213</v>
       </c>
       <c r="F7">
-        <v>0.9600112721421799</v>
+        <v>0.9620989939855559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041431034104562</v>
+        <v>1.042382017321752</v>
       </c>
       <c r="J7">
-        <v>1.01488974559624</v>
+        <v>1.017014363443967</v>
       </c>
       <c r="K7">
-        <v>1.023290221933907</v>
+        <v>1.024948922200732</v>
       </c>
       <c r="L7">
-        <v>1.008287552380701</v>
+        <v>1.010170214399559</v>
       </c>
       <c r="M7">
-        <v>0.970614378445506</v>
+        <v>0.9726742853058047</v>
+      </c>
+      <c r="N7">
+        <v>1.018458640493235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844786707695601</v>
+        <v>0.9866859936758895</v>
       </c>
       <c r="D8">
-        <v>1.00527313357198</v>
+        <v>1.006968057449292</v>
       </c>
       <c r="E8">
-        <v>0.988088265821267</v>
+        <v>0.990018323479566</v>
       </c>
       <c r="F8">
-        <v>0.9421149776434697</v>
+        <v>0.9442652517441504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037637425965255</v>
+        <v>1.038596174342027</v>
       </c>
       <c r="J8">
-        <v>1.00654689845456</v>
+        <v>1.008687584757464</v>
       </c>
       <c r="K8">
-        <v>1.016382147554658</v>
+        <v>1.018054462037634</v>
       </c>
       <c r="L8">
-        <v>0.9994320438357746</v>
+        <v>1.001335222334585</v>
       </c>
       <c r="M8">
-        <v>0.9541406485690255</v>
+        <v>0.9562571362641674</v>
+      </c>
+      <c r="N8">
+        <v>1.010120036825903</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633941788980589</v>
+        <v>0.9656640373493212</v>
       </c>
       <c r="D9">
-        <v>0.9896568825166855</v>
+        <v>0.9913920312490707</v>
       </c>
       <c r="E9">
-        <v>0.9685323803295215</v>
+        <v>0.9705209012220015</v>
       </c>
       <c r="F9">
-        <v>0.9067982533885387</v>
+        <v>0.9090997182663191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030146128639715</v>
+        <v>1.031124450240548</v>
       </c>
       <c r="J9">
-        <v>0.9903092704584706</v>
+        <v>0.992490401980944</v>
       </c>
       <c r="K9">
-        <v>1.00292002864189</v>
+        <v>1.004626327885882</v>
       </c>
       <c r="L9">
-        <v>0.9821575000263922</v>
+        <v>0.9841110766698149</v>
       </c>
       <c r="M9">
-        <v>0.9216090852981389</v>
+        <v>0.9238625272060366</v>
+      </c>
+      <c r="N9">
+        <v>0.9938998521919973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9476975102074624</v>
+        <v>0.9500257879551234</v>
       </c>
       <c r="D10">
-        <v>0.9780584753833675</v>
+        <v>0.9798318122720122</v>
       </c>
       <c r="E10">
-        <v>0.9539235281344323</v>
+        <v>0.9559675808455136</v>
       </c>
       <c r="F10">
-        <v>0.8797561104484479</v>
+        <v>0.8822042601341844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024468569100096</v>
+        <v>1.025466101263404</v>
       </c>
       <c r="J10">
-        <v>0.9781517440850768</v>
+        <v>0.9803727269161618</v>
       </c>
       <c r="K10">
-        <v>0.9928355230699369</v>
+        <v>0.9945750143026019</v>
       </c>
       <c r="L10">
-        <v>0.9691777124087384</v>
+        <v>0.9711801245335019</v>
       </c>
       <c r="M10">
-        <v>0.8966984077291751</v>
+        <v>0.8990847143715976</v>
+      </c>
+      <c r="N10">
+        <v>0.9817649686387059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9403978948953716</v>
+        <v>0.9427576017359373</v>
       </c>
       <c r="D11">
-        <v>0.9726745680554107</v>
+        <v>0.9744686310377875</v>
       </c>
       <c r="E11">
-        <v>0.947110875317839</v>
+        <v>0.9491851570711995</v>
       </c>
       <c r="F11">
-        <v>0.866907842253138</v>
+        <v>0.8694374266594052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021804688842357</v>
+        <v>1.022812810358293</v>
       </c>
       <c r="J11">
-        <v>0.9724790505325045</v>
+        <v>0.974722091969175</v>
       </c>
       <c r="K11">
-        <v>0.9881308795781337</v>
+        <v>0.9898886460504721</v>
       </c>
       <c r="L11">
-        <v>0.9631042262595321</v>
+        <v>0.9651335002723104</v>
       </c>
       <c r="M11">
-        <v>0.8848673728428805</v>
+        <v>0.887327384825024</v>
+      </c>
+      <c r="N11">
+        <v>0.9761063091419578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375978702011144</v>
+        <v>0.9399704617736064</v>
       </c>
       <c r="D12">
-        <v>0.9706111905781809</v>
+        <v>0.9724137825028337</v>
       </c>
       <c r="E12">
-        <v>0.9444939154204884</v>
+        <v>0.9465806603821785</v>
       </c>
       <c r="F12">
-        <v>0.8619270319417168</v>
+        <v>0.8644905378424328</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020779335775957</v>
+        <v>1.021791841036701</v>
       </c>
       <c r="J12">
-        <v>0.9702999158934482</v>
+        <v>0.9725521085278274</v>
       </c>
       <c r="K12">
-        <v>0.9863239565686877</v>
+        <v>0.9880892871152555</v>
       </c>
       <c r="L12">
-        <v>0.9607678125899615</v>
+        <v>0.962808208855117</v>
       </c>
       <c r="M12">
-        <v>0.8802821736624019</v>
+        <v>0.88277287195612</v>
+      </c>
+      <c r="N12">
+        <v>0.9739332440752227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9382027470218911</v>
+        <v>0.9405725139267374</v>
       </c>
       <c r="D13">
-        <v>0.971056845499348</v>
+        <v>0.9728575661310994</v>
       </c>
       <c r="E13">
-        <v>0.9450594312124854</v>
+        <v>0.9471434404258271</v>
       </c>
       <c r="F13">
-        <v>0.8630056004245671</v>
+        <v>0.8655616427666244</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021000997126246</v>
+        <v>1.022012539373697</v>
       </c>
       <c r="J13">
-        <v>0.9707708143064331</v>
+        <v>0.9730209956531136</v>
       </c>
       <c r="K13">
-        <v>0.9867144026543593</v>
+        <v>0.9884780715734925</v>
       </c>
       <c r="L13">
-        <v>0.961272861980479</v>
+        <v>0.9633108146329471</v>
       </c>
       <c r="M13">
-        <v>0.8812750061919172</v>
+        <v>0.8837589535738358</v>
+      </c>
+      <c r="N13">
+        <v>0.9744027970740091</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.940168341026782</v>
+        <v>0.9425290860941596</v>
       </c>
       <c r="D14">
-        <v>0.9725053680010201</v>
+        <v>0.9743001175622781</v>
       </c>
       <c r="E14">
-        <v>0.9468964110900053</v>
+        <v>0.9489716955927074</v>
       </c>
       <c r="F14">
-        <v>0.8665006388032487</v>
+        <v>0.8690329448475128</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021720698739184</v>
+        <v>1.022729172619165</v>
       </c>
       <c r="J14">
-        <v>0.9723004654002668</v>
+        <v>0.9745442419886198</v>
       </c>
       <c r="K14">
-        <v>0.9879827896960034</v>
+        <v>0.9897411641844555</v>
       </c>
       <c r="L14">
-        <v>0.9629128237810207</v>
+        <v>0.9649429916854798</v>
       </c>
       <c r="M14">
-        <v>0.8844924828621091</v>
+        <v>0.8869549572647315</v>
+      </c>
+      <c r="N14">
+        <v>0.9759282065940306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9413672101143998</v>
+        <v>0.9437225677488877</v>
       </c>
       <c r="D15">
-        <v>0.9733891081934684</v>
+        <v>0.9751802963399743</v>
       </c>
       <c r="E15">
-        <v>0.9480163162800839</v>
+        <v>0.9500864003309017</v>
       </c>
       <c r="F15">
-        <v>0.8686251061142343</v>
+        <v>0.8711433115294767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022159203300641</v>
+        <v>1.023165850438597</v>
       </c>
       <c r="J15">
-        <v>0.9732330144094501</v>
+        <v>0.975472980587478</v>
       </c>
       <c r="K15">
-        <v>0.9887561115767679</v>
+        <v>0.9905113339135634</v>
       </c>
       <c r="L15">
-        <v>0.9639121643987058</v>
+        <v>0.9659376982984791</v>
       </c>
       <c r="M15">
-        <v>0.886448418796965</v>
+        <v>0.8888981349075495</v>
+      </c>
+      <c r="N15">
+        <v>0.976858264108227</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9481703320228371</v>
+        <v>0.950496675135118</v>
       </c>
       <c r="D16">
-        <v>0.9784074377380156</v>
+        <v>0.9801795026337429</v>
       </c>
       <c r="E16">
-        <v>0.9543643544451327</v>
+        <v>0.9564065543995401</v>
       </c>
       <c r="F16">
-        <v>0.8805818975377928</v>
+        <v>0.8830250939608805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024640637694342</v>
+        <v>1.025637523208551</v>
       </c>
       <c r="J16">
-        <v>0.9785187730390391</v>
+        <v>0.9807384109987858</v>
       </c>
       <c r="K16">
-        <v>0.9931399513963121</v>
+        <v>0.9948783263618528</v>
       </c>
       <c r="L16">
-        <v>0.9695702668497728</v>
+        <v>0.9715710382993873</v>
       </c>
       <c r="M16">
-        <v>0.8974589507763389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8998407727300566</v>
+      </c>
+      <c r="N16">
+        <v>0.9821311720346722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9522949633908142</v>
+        <v>0.9546049175258434</v>
       </c>
       <c r="D17">
-        <v>0.9814527170168397</v>
+        <v>0.9832140253172699</v>
       </c>
       <c r="E17">
-        <v>0.9582077030208025</v>
+        <v>0.9602342451332821</v>
       </c>
       <c r="F17">
-        <v>0.8877543704838633</v>
+        <v>0.8901558760361444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026139052251392</v>
+        <v>1.027130486144586</v>
       </c>
       <c r="J17">
-        <v>0.9817183995053277</v>
+        <v>0.9839267092229277</v>
       </c>
       <c r="K17">
-        <v>0.9957939549294291</v>
+        <v>0.9975229171693709</v>
       </c>
       <c r="L17">
-        <v>0.9729904531913179</v>
+        <v>0.97497738788346</v>
       </c>
       <c r="M17">
-        <v>0.9040652846190805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9064093533602303</v>
+      </c>
+      <c r="N17">
+        <v>0.9853239980079953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546533147545914</v>
+        <v>0.9569542768711484</v>
       </c>
       <c r="D18">
-        <v>0.9831948104318755</v>
+        <v>0.9849502319419338</v>
       </c>
       <c r="E18">
-        <v>0.9604035461139205</v>
+        <v>0.9624215259832504</v>
       </c>
       <c r="F18">
-        <v>0.8918311016835138</v>
+        <v>0.8942099347836264</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026993627332983</v>
+        <v>1.027982091279755</v>
       </c>
       <c r="J18">
-        <v>0.9835461362589853</v>
+        <v>0.985748281819006</v>
       </c>
       <c r="K18">
-        <v>0.9973100685426458</v>
+        <v>0.9990339010484749</v>
       </c>
       <c r="L18">
-        <v>0.9749426591975807</v>
+        <v>0.9769220504047993</v>
       </c>
       <c r="M18">
-        <v>0.907820599371285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9101441328027958</v>
+      </c>
+      <c r="N18">
+        <v>0.9871481574460973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9554497397644356</v>
+        <v>0.9577477251317345</v>
       </c>
       <c r="D19">
-        <v>0.983783264005641</v>
+        <v>0.9855367391707145</v>
       </c>
       <c r="E19">
-        <v>0.9611448275950463</v>
+        <v>0.9631599774799419</v>
       </c>
       <c r="F19">
-        <v>0.8932039859667977</v>
+        <v>0.8955753443938118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027281850748518</v>
+        <v>1.028269335014033</v>
       </c>
       <c r="J19">
-        <v>0.9841630859389865</v>
+        <v>0.986363199261089</v>
       </c>
       <c r="K19">
-        <v>0.9978218341171605</v>
+        <v>0.9995439741482419</v>
       </c>
       <c r="L19">
-        <v>0.9756013831060554</v>
+        <v>0.9775782848179663</v>
       </c>
       <c r="M19">
-        <v>0.9090852917288633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9114020544888453</v>
+      </c>
+      <c r="N19">
+        <v>0.9877639481414802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9518574232953305</v>
+        <v>0.9541690754110045</v>
       </c>
       <c r="D20">
-        <v>0.9811295798734229</v>
+        <v>0.9828920010035845</v>
       </c>
       <c r="E20">
-        <v>0.9578001814736145</v>
+        <v>0.9598283426937212</v>
       </c>
       <c r="F20">
-        <v>0.8869961161146616</v>
+        <v>0.8894019188455009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025980327489233</v>
+        <v>1.026972323935737</v>
       </c>
       <c r="J20">
-        <v>0.9813791651195778</v>
+        <v>0.9835886429952555</v>
       </c>
       <c r="K20">
-        <v>0.9955125620303413</v>
+        <v>0.9972424957562426</v>
       </c>
       <c r="L20">
-        <v>0.9726279975161961</v>
+        <v>0.9746163605452941</v>
       </c>
       <c r="M20">
-        <v>0.9033668389392276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9057147994833308</v>
+      </c>
+      <c r="N20">
+        <v>0.984985451687503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9395920929944878</v>
+        <v>0.9419554583830496</v>
       </c>
       <c r="D21">
-        <v>0.9720806560763047</v>
+        <v>0.9738771389790507</v>
       </c>
       <c r="E21">
-        <v>0.9463579792071743</v>
+        <v>0.9484357956711544</v>
       </c>
       <c r="F21">
-        <v>0.8654775523361425</v>
+        <v>0.8680167364515322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021509802245557</v>
+        <v>1.022519166124114</v>
       </c>
       <c r="J21">
-        <v>0.9718521117489748</v>
+        <v>0.9740977455048544</v>
       </c>
       <c r="K21">
-        <v>0.9876110033614709</v>
+        <v>0.9893709135559783</v>
       </c>
       <c r="L21">
-        <v>0.9624322349803353</v>
+        <v>0.9644646607436325</v>
       </c>
       <c r="M21">
-        <v>0.8835506055822231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8860193026953954</v>
+      </c>
+      <c r="N21">
+        <v>0.9754810760340444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9313580490077005</v>
+        <v>0.9337611866790713</v>
       </c>
       <c r="D22">
-        <v>0.9660167517953345</v>
+        <v>0.9678396327251322</v>
       </c>
       <c r="E22">
-        <v>0.9386538077693571</v>
+        <v>0.9407702618365557</v>
       </c>
       <c r="F22">
-        <v>0.8507133099513228</v>
+        <v>0.8533585104304268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018487787012021</v>
+        <v>1.019510773320794</v>
       </c>
       <c r="J22">
-        <v>0.9654373386726853</v>
+        <v>0.9677114561121714</v>
       </c>
       <c r="K22">
-        <v>0.9822928822419228</v>
+        <v>0.9840762970641164</v>
       </c>
       <c r="L22">
-        <v>0.9555470413483007</v>
+        <v>0.9576140493979028</v>
       </c>
       <c r="M22">
-        <v>0.8699623421809988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8725269028740014</v>
+      </c>
+      <c r="N22">
+        <v>0.9690857173779059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9357780340209256</v>
+        <v>0.9381592650556995</v>
       </c>
       <c r="D23">
-        <v>0.9692706839984135</v>
+        <v>0.9710790046354699</v>
       </c>
       <c r="E23">
-        <v>0.9427918657369848</v>
+        <v>0.9448869903285924</v>
       </c>
       <c r="F23">
-        <v>0.858673233680827</v>
+        <v>0.8612596624566365</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020111926176663</v>
+        <v>1.02112738358769</v>
       </c>
       <c r="J23">
-        <v>0.9688826685690284</v>
+        <v>0.9711410302520219</v>
       </c>
       <c r="K23">
-        <v>0.9851489146696315</v>
+        <v>0.9869193389245797</v>
       </c>
       <c r="L23">
-        <v>0.9592472234883067</v>
+        <v>0.9612951120625856</v>
       </c>
       <c r="M23">
-        <v>0.8772872644423949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.879798693873723</v>
+      </c>
+      <c r="N23">
+        <v>0.9725201619064129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9520552746011226</v>
+        <v>0.9543661577392267</v>
       </c>
       <c r="D24">
-        <v>0.9812756965581453</v>
+        <v>0.983037613665438</v>
       </c>
       <c r="E24">
-        <v>0.9579844638585177</v>
+        <v>0.9600118917312108</v>
       </c>
       <c r="F24">
-        <v>0.887339066154004</v>
+        <v>0.8897429221586962</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026052108043815</v>
+        <v>1.027043849655678</v>
       </c>
       <c r="J24">
-        <v>0.981532568899286</v>
+        <v>0.983741517580782</v>
       </c>
       <c r="K24">
-        <v>0.9956398093931182</v>
+        <v>0.9973693030453372</v>
       </c>
       <c r="L24">
-        <v>0.9727919067929505</v>
+        <v>0.9747796228085529</v>
       </c>
       <c r="M24">
-        <v>0.9036827370592608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9060289345352828</v>
+      </c>
+      <c r="N24">
+        <v>0.9851385433724761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969102312906564</v>
+        <v>0.9713536046873464</v>
       </c>
       <c r="D25">
-        <v>0.993880998588316</v>
+        <v>0.9956041205553923</v>
       </c>
       <c r="E25">
-        <v>0.9738333600387273</v>
+        <v>0.9758044145899543</v>
       </c>
       <c r="F25">
-        <v>0.9164611089184862</v>
+        <v>0.9187171266865828</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032191145446952</v>
+        <v>1.033163524606855</v>
       </c>
       <c r="J25">
-        <v>0.9947162050574441</v>
+        <v>0.9968850475189857</v>
       </c>
       <c r="K25">
-        <v>1.00657505270578</v>
+        <v>1.008271062346551</v>
       </c>
       <c r="L25">
-        <v>0.986851931691195</v>
+        <v>0.9887903195276716</v>
       </c>
       <c r="M25">
-        <v>0.930511269129604</v>
+        <v>0.9327235332868514</v>
+      </c>
+      <c r="N25">
+        <v>0.9983007386307758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9837722127194189</v>
+        <v>1.015978525236466</v>
       </c>
       <c r="D2">
-        <v>1.004807189227087</v>
+        <v>1.03736586151352</v>
       </c>
       <c r="E2">
-        <v>0.9873195445693357</v>
+        <v>1.017796792886288</v>
       </c>
       <c r="F2">
-        <v>0.9394477106294082</v>
+        <v>1.043449683939323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037571410810162</v>
+        <v>1.056725412754079</v>
       </c>
       <c r="J2">
-        <v>1.006449369802028</v>
+        <v>1.037691603014987</v>
       </c>
       <c r="K2">
-        <v>1.016199956081144</v>
+        <v>1.048328063904908</v>
       </c>
       <c r="L2">
-        <v>0.9989584114766992</v>
+        <v>1.029013635271884</v>
       </c>
       <c r="M2">
-        <v>0.9518204664940086</v>
+        <v>1.054335148605128</v>
       </c>
       <c r="N2">
-        <v>1.007878643348504</v>
+        <v>1.039165244116159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922536445347453</v>
+        <v>1.024473917397606</v>
       </c>
       <c r="D3">
-        <v>1.011098322323658</v>
+        <v>1.044190093929457</v>
       </c>
       <c r="E3">
-        <v>0.9951723252349215</v>
+        <v>1.025179623264923</v>
       </c>
       <c r="F3">
-        <v>0.9534267751358441</v>
+        <v>1.050794924798764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040543150496262</v>
+        <v>1.060127731260903</v>
       </c>
       <c r="J3">
-        <v>1.012957733926234</v>
+        <v>1.044318927154636</v>
       </c>
       <c r="K3">
-        <v>1.021591140487121</v>
+        <v>1.054287131527437</v>
       </c>
       <c r="L3">
-        <v>1.005867352033017</v>
+        <v>1.035500152388842</v>
       </c>
       <c r="M3">
-        <v>0.964692417736969</v>
+        <v>1.060816648420907</v>
       </c>
       <c r="N3">
-        <v>1.014396250096285</v>
+        <v>1.04580197981625</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9975248416105038</v>
+        <v>1.029783127048355</v>
       </c>
       <c r="D4">
-        <v>1.015009897297412</v>
+        <v>1.048458343264675</v>
       </c>
       <c r="E4">
-        <v>1.000048742482612</v>
+        <v>1.029793445137463</v>
       </c>
       <c r="F4">
-        <v>0.9620514187324012</v>
+        <v>1.055393695590636</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04237194456112</v>
+        <v>1.062240195051709</v>
       </c>
       <c r="J4">
-        <v>1.016992074812039</v>
+        <v>1.048454486735478</v>
       </c>
       <c r="K4">
-        <v>1.024930479497899</v>
+        <v>1.058005086960664</v>
       </c>
       <c r="L4">
-        <v>1.010146579261127</v>
+        <v>1.039545110604627</v>
       </c>
       <c r="M4">
-        <v>0.972630506169566</v>
+        <v>1.064866556340228</v>
       </c>
       <c r="N4">
-        <v>1.018436320208894</v>
+        <v>1.049943412366053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996928730101856</v>
+        <v>1.031972995916181</v>
       </c>
       <c r="D5">
-        <v>1.016618975097802</v>
+        <v>1.050219550732914</v>
       </c>
       <c r="E5">
-        <v>1.002053575799426</v>
+        <v>1.031696387462625</v>
       </c>
       <c r="F5">
-        <v>0.9655858896804347</v>
+        <v>1.057292393448496</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043119726842634</v>
+        <v>1.063108130896657</v>
       </c>
       <c r="J5">
-        <v>1.018648882033037</v>
+        <v>1.050158712930681</v>
       </c>
       <c r="K5">
-        <v>1.026301199940242</v>
+        <v>1.059537048019461</v>
       </c>
       <c r="L5">
-        <v>1.011903299261618</v>
+        <v>1.041211343835358</v>
       </c>
       <c r="M5">
-        <v>0.9758826622524572</v>
+        <v>1.066536719883573</v>
       </c>
       <c r="N5">
-        <v>1.020095480286184</v>
+        <v>1.05165005875793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000054186560483</v>
+        <v>1.032338292287457</v>
       </c>
       <c r="D6">
-        <v>1.016887147379923</v>
+        <v>1.050513378955554</v>
       </c>
       <c r="E6">
-        <v>1.002387646826356</v>
+        <v>1.032013812786282</v>
       </c>
       <c r="F6">
-        <v>0.9661742347547425</v>
+        <v>1.057609224553951</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043244088569556</v>
+        <v>1.063252712045573</v>
       </c>
       <c r="J6">
-        <v>1.018924850674068</v>
+        <v>1.050442905203006</v>
       </c>
       <c r="K6">
-        <v>1.026529475052951</v>
+        <v>1.059792502717966</v>
       </c>
       <c r="L6">
-        <v>1.01219587574798</v>
+        <v>1.04148916183398</v>
       </c>
       <c r="M6">
-        <v>0.9764239540280748</v>
+        <v>1.066815303194818</v>
       </c>
       <c r="N6">
-        <v>1.020371840834339</v>
+        <v>1.05193465461588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9975539946527657</v>
+        <v>1.029812550129868</v>
       </c>
       <c r="D7">
-        <v>1.015031533374563</v>
+        <v>1.048482004237409</v>
       </c>
       <c r="E7">
-        <v>1.000075704132213</v>
+        <v>1.029819013582141</v>
       </c>
       <c r="F7">
-        <v>0.9620989939855559</v>
+        <v>1.055419199305414</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042382017321752</v>
+        <v>1.062251870131284</v>
       </c>
       <c r="J7">
-        <v>1.017014363443967</v>
+        <v>1.048477390951252</v>
       </c>
       <c r="K7">
-        <v>1.024948922200732</v>
+        <v>1.058025676721214</v>
       </c>
       <c r="L7">
-        <v>1.010170214399559</v>
+        <v>1.039567506812417</v>
       </c>
       <c r="M7">
-        <v>0.9726742853058047</v>
+        <v>1.064888997938053</v>
       </c>
       <c r="N7">
-        <v>1.018458640493235</v>
+        <v>1.049966349108441</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9866859936758895</v>
+        <v>1.018890295057613</v>
       </c>
       <c r="D8">
-        <v>1.006968057449292</v>
+        <v>1.039704039081586</v>
       </c>
       <c r="E8">
-        <v>0.990018323479566</v>
+        <v>1.020327202211502</v>
       </c>
       <c r="F8">
-        <v>0.9442652517441504</v>
+        <v>1.045965382750866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038596174342027</v>
+        <v>1.057894430214322</v>
       </c>
       <c r="J8">
-        <v>1.008687584757464</v>
+        <v>1.039964368789703</v>
       </c>
       <c r="K8">
-        <v>1.018054462037634</v>
+        <v>1.050371766799371</v>
       </c>
       <c r="L8">
-        <v>1.001335222334585</v>
+        <v>1.031238692180475</v>
       </c>
       <c r="M8">
-        <v>0.9562571362641674</v>
+        <v>1.056556740996782</v>
       </c>
       <c r="N8">
-        <v>1.010120036825903</v>
+        <v>1.041441237478965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9656640373493212</v>
+        <v>0.9980596406504434</v>
       </c>
       <c r="D9">
-        <v>0.9913920312490707</v>
+        <v>1.022997737893722</v>
       </c>
       <c r="E9">
-        <v>0.9705209012220015</v>
+        <v>1.002228276361607</v>
       </c>
       <c r="F9">
-        <v>0.9090997182663191</v>
+        <v>1.028011472075754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031124450240548</v>
+        <v>1.049474091881259</v>
       </c>
       <c r="J9">
-        <v>0.992490401980944</v>
+        <v>1.023681104564644</v>
       </c>
       <c r="K9">
-        <v>1.004626327885882</v>
+        <v>1.035728395472292</v>
       </c>
       <c r="L9">
-        <v>0.9841110766698149</v>
+        <v>1.015285304492355</v>
       </c>
       <c r="M9">
-        <v>0.9238625272060366</v>
+        <v>1.040665861515821</v>
       </c>
       <c r="N9">
-        <v>0.9938998521919973</v>
+        <v>1.02513484915099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500257879551234</v>
+        <v>0.9828717731583707</v>
       </c>
       <c r="D10">
-        <v>0.9798318122720122</v>
+        <v>1.010851656739105</v>
       </c>
       <c r="E10">
-        <v>0.9559675808455136</v>
+        <v>0.9890418313681322</v>
       </c>
       <c r="F10">
-        <v>0.8822042601341844</v>
+        <v>1.014985801713414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025466101263404</v>
+        <v>1.043264897550127</v>
       </c>
       <c r="J10">
-        <v>0.9803727269161618</v>
+        <v>1.011781838567245</v>
       </c>
       <c r="K10">
-        <v>0.9945750143026019</v>
+        <v>1.025027706902849</v>
       </c>
       <c r="L10">
-        <v>0.9711801245335019</v>
+        <v>1.00361179834383</v>
       </c>
       <c r="M10">
-        <v>0.8990847143715976</v>
+        <v>1.029089653649886</v>
       </c>
       <c r="N10">
-        <v>0.9817649686387059</v>
+        <v>1.013218684831009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9427576017359373</v>
+        <v>0.9759222491949151</v>
       </c>
       <c r="D11">
-        <v>0.9744686310377875</v>
+        <v>1.005305109437123</v>
       </c>
       <c r="E11">
-        <v>0.9491851570711995</v>
+        <v>0.9830123721632503</v>
       </c>
       <c r="F11">
-        <v>0.8694374266594052</v>
+        <v>1.009044405124833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022812810358293</v>
+        <v>1.040408584280135</v>
       </c>
       <c r="J11">
-        <v>0.974722091969175</v>
+        <v>1.006332166509666</v>
       </c>
       <c r="K11">
-        <v>0.9898886460504721</v>
+        <v>1.020127667875303</v>
       </c>
       <c r="L11">
-        <v>0.9651335002723104</v>
+        <v>0.9982619219008639</v>
       </c>
       <c r="M11">
-        <v>0.887327384825024</v>
+        <v>1.023797749303228</v>
       </c>
       <c r="N11">
-        <v>0.9761063091419578</v>
+        <v>1.007761273614022</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9399704617736064</v>
+        <v>0.9732782154944819</v>
       </c>
       <c r="D12">
-        <v>0.9724137825028337</v>
+        <v>1.003196819170932</v>
       </c>
       <c r="E12">
-        <v>0.9465806603821785</v>
+        <v>0.9807192303273451</v>
       </c>
       <c r="F12">
-        <v>0.8644905378424328</v>
+        <v>1.006787083184</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021791841036701</v>
+        <v>1.039319728718539</v>
       </c>
       <c r="J12">
-        <v>0.9725521085278274</v>
+        <v>1.004258182644969</v>
       </c>
       <c r="K12">
-        <v>0.9880892871152555</v>
+        <v>1.018263028385604</v>
       </c>
       <c r="L12">
-        <v>0.962808208855117</v>
+        <v>0.9962253824492652</v>
       </c>
       <c r="M12">
-        <v>0.88277287195612</v>
+        <v>1.021785398409074</v>
       </c>
       <c r="N12">
-        <v>0.9739332440752227</v>
+        <v>1.005684344454348</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9405725139267374</v>
+        <v>0.9738483242994326</v>
       </c>
       <c r="D13">
-        <v>0.9728575661310994</v>
+        <v>1.00365131690748</v>
       </c>
       <c r="E13">
-        <v>0.9471434404258271</v>
+        <v>0.9812136380329478</v>
       </c>
       <c r="F13">
-        <v>0.8655616427666244</v>
+        <v>1.007273660579076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022012539373697</v>
+        <v>1.03955460245278</v>
       </c>
       <c r="J13">
-        <v>0.9730209956531136</v>
+        <v>1.004705400648324</v>
       </c>
       <c r="K13">
-        <v>0.9884780715734925</v>
+        <v>1.018665096164461</v>
       </c>
       <c r="L13">
-        <v>0.9633108146329471</v>
+        <v>0.996664550223861</v>
       </c>
       <c r="M13">
-        <v>0.8837589535738358</v>
+        <v>1.022219252543915</v>
       </c>
       <c r="N13">
-        <v>0.9744027970740091</v>
+        <v>1.006132197558565</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9425290860941596</v>
+        <v>0.9757050133057716</v>
       </c>
       <c r="D14">
-        <v>0.9743001175622781</v>
+        <v>1.005131849102239</v>
       </c>
       <c r="E14">
-        <v>0.9489716955927074</v>
+        <v>0.9828239475299481</v>
       </c>
       <c r="F14">
-        <v>0.8690329448475128</v>
+        <v>1.008858875765017</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022729172619165</v>
+        <v>1.040319165377334</v>
       </c>
       <c r="J14">
-        <v>0.9745442419886198</v>
+        <v>1.006161777310553</v>
       </c>
       <c r="K14">
-        <v>0.9897411641844555</v>
+        <v>1.019974473621821</v>
       </c>
       <c r="L14">
-        <v>0.9649429916854798</v>
+        <v>0.9980946197501314</v>
       </c>
       <c r="M14">
-        <v>0.8869549572647315</v>
+        <v>1.023632390653922</v>
       </c>
       <c r="N14">
-        <v>0.9759282065940306</v>
+        <v>1.007590642442703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9437225677488877</v>
+        <v>0.9768404591129747</v>
       </c>
       <c r="D15">
-        <v>0.9751802963399743</v>
+        <v>1.006037525475523</v>
       </c>
       <c r="E15">
-        <v>0.9500864003309017</v>
+        <v>0.9838088384261499</v>
       </c>
       <c r="F15">
-        <v>0.8711433115294767</v>
+        <v>1.009828728435022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023165850438597</v>
+        <v>1.040786453282993</v>
       </c>
       <c r="J15">
-        <v>0.975472980587478</v>
+        <v>1.007052342552107</v>
       </c>
       <c r="K15">
-        <v>0.9905113339135634</v>
+        <v>1.020775174157493</v>
       </c>
       <c r="L15">
-        <v>0.9659376982984791</v>
+        <v>0.9989690284142662</v>
       </c>
       <c r="M15">
-        <v>0.8888981349075495</v>
+        <v>1.024496728215968</v>
       </c>
       <c r="N15">
-        <v>0.976858264108227</v>
+        <v>1.008482472389049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.950496675135118</v>
+        <v>0.9833245894674267</v>
       </c>
       <c r="D16">
-        <v>0.9801795026337429</v>
+        <v>1.0112133108349</v>
       </c>
       <c r="E16">
-        <v>0.9564065543995401</v>
+        <v>0.9894348022037485</v>
       </c>
       <c r="F16">
-        <v>0.8830250939608805</v>
+        <v>1.015373344267819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025637523208551</v>
+        <v>1.043450708025626</v>
       </c>
       <c r="J16">
-        <v>0.9807384109987858</v>
+        <v>1.012136838540462</v>
       </c>
       <c r="K16">
-        <v>0.9948783263618528</v>
+        <v>1.025346922640325</v>
       </c>
       <c r="L16">
-        <v>0.9715710382993873</v>
+        <v>1.003960223811588</v>
       </c>
       <c r="M16">
-        <v>0.8998407727300566</v>
+        <v>1.029434587855796</v>
       </c>
       <c r="N16">
-        <v>0.9821311720346722</v>
+        <v>1.013574188944907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9546049175258434</v>
+        <v>0.9872876888731229</v>
       </c>
       <c r="D17">
-        <v>0.9832140253172699</v>
+        <v>1.014379828313592</v>
       </c>
       <c r="E17">
-        <v>0.9602342451332821</v>
+        <v>0.9928746269567977</v>
       </c>
       <c r="F17">
-        <v>0.8901558760361444</v>
+        <v>1.01876730057918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027130486144586</v>
+        <v>1.045075256219338</v>
       </c>
       <c r="J17">
-        <v>0.9839267092229277</v>
+        <v>1.01524330259562</v>
       </c>
       <c r="K17">
-        <v>0.9975229171693709</v>
+        <v>1.028140338778385</v>
       </c>
       <c r="L17">
-        <v>0.97497738788346</v>
+        <v>1.007008753961214</v>
       </c>
       <c r="M17">
-        <v>0.9064093533602303</v>
+        <v>1.032454082637169</v>
       </c>
       <c r="N17">
-        <v>0.9853239980079953</v>
+        <v>1.01668506453534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9569542768711484</v>
+        <v>0.9895638018525962</v>
       </c>
       <c r="D18">
-        <v>0.9849502319419338</v>
+        <v>1.016199462661211</v>
       </c>
       <c r="E18">
-        <v>0.9624215259832504</v>
+        <v>0.9948505938434605</v>
       </c>
       <c r="F18">
-        <v>0.8942099347836264</v>
+        <v>1.020718267182884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027982091279755</v>
+        <v>1.046006851752097</v>
       </c>
       <c r="J18">
-        <v>0.985748281819006</v>
+        <v>1.017026957703564</v>
       </c>
       <c r="K18">
-        <v>0.9990339010484749</v>
+        <v>1.029744310605908</v>
       </c>
       <c r="L18">
-        <v>0.9769220504047993</v>
+        <v>1.008758808707279</v>
       </c>
       <c r="M18">
-        <v>0.9101441328027958</v>
+        <v>1.034188709059274</v>
       </c>
       <c r="N18">
-        <v>0.9871481574460973</v>
+        <v>1.018471252638125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9577477251317345</v>
+        <v>0.9903340604871586</v>
       </c>
       <c r="D19">
-        <v>0.9855367391707145</v>
+        <v>1.016815409609753</v>
       </c>
       <c r="E19">
-        <v>0.9631599774799419</v>
+        <v>0.9955193399699104</v>
       </c>
       <c r="F19">
-        <v>0.8955753443938118</v>
+        <v>1.021378777056661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028269335014033</v>
+        <v>1.04632186697604</v>
       </c>
       <c r="J19">
-        <v>0.986363199261089</v>
+        <v>1.017630480122702</v>
       </c>
       <c r="K19">
-        <v>0.9995439741482419</v>
+        <v>1.030287043505498</v>
       </c>
       <c r="L19">
-        <v>0.9775782848179663</v>
+        <v>1.009350904860559</v>
       </c>
       <c r="M19">
-        <v>0.9114020544888453</v>
+        <v>1.034775792664844</v>
       </c>
       <c r="N19">
-        <v>0.9877639481414802</v>
+        <v>1.019075632128324</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9541690754110045</v>
+        <v>0.9868662016789423</v>
       </c>
       <c r="D20">
-        <v>0.9828920010035845</v>
+        <v>1.014042951954067</v>
       </c>
       <c r="E20">
-        <v>0.9598283426937212</v>
+        <v>0.9925087502460396</v>
       </c>
       <c r="F20">
-        <v>0.8894019188455009</v>
+        <v>1.018406161441276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026972323935737</v>
+        <v>1.044902628157601</v>
       </c>
       <c r="J20">
-        <v>0.9835886429952555</v>
+        <v>1.014912968934888</v>
       </c>
       <c r="K20">
-        <v>0.9972424957562426</v>
+        <v>1.027843287067275</v>
       </c>
       <c r="L20">
-        <v>0.9746163605452941</v>
+        <v>1.006684615793436</v>
       </c>
       <c r="M20">
-        <v>0.9057147994833308</v>
+        <v>1.032132901925366</v>
       </c>
       <c r="N20">
-        <v>0.984985451687503</v>
+        <v>1.01635426176292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9419554583830496</v>
+        <v>0.9751600534979671</v>
       </c>
       <c r="D21">
-        <v>0.9738771389790507</v>
+        <v>1.004697239327859</v>
       </c>
       <c r="E21">
-        <v>0.9484357956711544</v>
+        <v>0.9823512781350178</v>
       </c>
       <c r="F21">
-        <v>0.8680167364515322</v>
+        <v>1.008393507154476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022519166124114</v>
+        <v>1.040094814589621</v>
       </c>
       <c r="J21">
-        <v>0.9740977455048544</v>
+        <v>1.005734328627224</v>
       </c>
       <c r="K21">
-        <v>0.9893709135559783</v>
+        <v>1.019590164191537</v>
       </c>
       <c r="L21">
-        <v>0.9644646607436325</v>
+        <v>0.9976749068599428</v>
       </c>
       <c r="M21">
-        <v>0.8860193026953954</v>
+        <v>1.023217587890459</v>
       </c>
       <c r="N21">
-        <v>0.9754810760340444</v>
+        <v>1.007162586733214</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9337611866790713</v>
+        <v>0.96743318403958</v>
       </c>
       <c r="D22">
-        <v>0.9678396327251322</v>
+        <v>0.9985401189729213</v>
       </c>
       <c r="E22">
-        <v>0.9407702618365557</v>
+        <v>0.975651705667837</v>
       </c>
       <c r="F22">
-        <v>0.8533585104304268</v>
+        <v>1.001803194061273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019510773320794</v>
+        <v>1.036908880381363</v>
       </c>
       <c r="J22">
-        <v>0.9677114561121714</v>
+        <v>0.9996724340231888</v>
       </c>
       <c r="K22">
-        <v>0.9840762970641164</v>
+        <v>1.014140551972987</v>
       </c>
       <c r="L22">
-        <v>0.9576140493979028</v>
+        <v>0.9917214460769737</v>
       </c>
       <c r="M22">
-        <v>0.8725269028740014</v>
+        <v>1.017339013761126</v>
       </c>
       <c r="N22">
-        <v>0.9690857173779059</v>
+        <v>1.001092083543532</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9381592650556995</v>
+        <v>0.9715666265000344</v>
       </c>
       <c r="D23">
-        <v>0.9710790046354699</v>
+        <v>1.001832631929007</v>
       </c>
       <c r="E23">
-        <v>0.9448869903285924</v>
+        <v>0.9792350529077509</v>
       </c>
       <c r="F23">
-        <v>0.8612596624566365</v>
+        <v>1.00532676506629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02112738358769</v>
+        <v>1.038614286539126</v>
       </c>
       <c r="J23">
-        <v>0.9711410302520219</v>
+        <v>1.002915465032135</v>
       </c>
       <c r="K23">
-        <v>0.9869193389245797</v>
+        <v>1.017055899261149</v>
       </c>
       <c r="L23">
-        <v>0.9612951120625856</v>
+        <v>0.9949067568455739</v>
       </c>
       <c r="M23">
-        <v>0.879798693873723</v>
+        <v>1.020483047457928</v>
       </c>
       <c r="N23">
-        <v>0.9725201619064129</v>
+        <v>1.004339720028492</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9543661577392267</v>
+        <v>0.9870567628046566</v>
       </c>
       <c r="D24">
-        <v>0.983037613665438</v>
+        <v>1.014195256013111</v>
       </c>
       <c r="E24">
-        <v>0.9600118917312108</v>
+        <v>0.9926741677981589</v>
       </c>
       <c r="F24">
-        <v>0.8897429221586962</v>
+        <v>1.018569432892797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027043849655678</v>
+        <v>1.044980680519413</v>
       </c>
       <c r="J24">
-        <v>0.983741517580782</v>
+        <v>1.015062319556137</v>
       </c>
       <c r="K24">
-        <v>0.9973693030453372</v>
+        <v>1.027977590051201</v>
       </c>
       <c r="L24">
-        <v>0.9747796228085529</v>
+        <v>1.00683116635128</v>
       </c>
       <c r="M24">
-        <v>0.9060289345352828</v>
+        <v>1.0322781114979</v>
       </c>
       <c r="N24">
-        <v>0.9851385433724761</v>
+        <v>1.016503824479182</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9713536046873464</v>
+        <v>1.003654855954362</v>
       </c>
       <c r="D25">
-        <v>0.9956041205553923</v>
+        <v>1.027480115824421</v>
       </c>
       <c r="E25">
-        <v>0.9758044145899543</v>
+        <v>1.007088661608919</v>
       </c>
       <c r="F25">
-        <v>0.9187171266865828</v>
+        <v>1.032824028979938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033163524606855</v>
+        <v>1.051748031794795</v>
       </c>
       <c r="J25">
-        <v>0.9968850475189857</v>
+        <v>1.028059842563726</v>
       </c>
       <c r="K25">
-        <v>1.008271062346551</v>
+        <v>1.03966630645191</v>
       </c>
       <c r="L25">
-        <v>0.9887903195276716</v>
+        <v>1.019577922932883</v>
       </c>
       <c r="M25">
-        <v>0.9327235332868514</v>
+        <v>1.044933300501529</v>
       </c>
       <c r="N25">
-        <v>0.9983007386307758</v>
+        <v>1.029519805460278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015978525236466</v>
+        <v>0.9884671434633583</v>
       </c>
       <c r="D2">
-        <v>1.03736586151352</v>
+        <v>1.008867063512054</v>
       </c>
       <c r="E2">
-        <v>1.017796792886288</v>
-      </c>
-      <c r="F2">
-        <v>1.043449683939323</v>
+        <v>0.9965752217565824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056725412754079</v>
+        <v>1.041016242298574</v>
       </c>
       <c r="J2">
-        <v>1.037691603014987</v>
+        <v>1.010998358408475</v>
       </c>
       <c r="K2">
-        <v>1.048328063904908</v>
+        <v>1.020204232950172</v>
       </c>
       <c r="L2">
-        <v>1.029013635271884</v>
-      </c>
-      <c r="M2">
-        <v>1.054335148605128</v>
+        <v>1.008082476288721</v>
       </c>
       <c r="N2">
-        <v>1.039165244116159</v>
+        <v>1.012434092040547</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024473917397606</v>
+        <v>0.9927200541737127</v>
       </c>
       <c r="D3">
-        <v>1.044190093929457</v>
+        <v>1.011874952167614</v>
       </c>
       <c r="E3">
-        <v>1.025179623264923</v>
-      </c>
-      <c r="F3">
-        <v>1.050794924798764</v>
+        <v>0.999929006882188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060127731260903</v>
+        <v>1.04204136160729</v>
       </c>
       <c r="J3">
-        <v>1.044318927154636</v>
+        <v>1.013411164618171</v>
       </c>
       <c r="K3">
-        <v>1.054287131527437</v>
+        <v>1.022358112426017</v>
       </c>
       <c r="L3">
-        <v>1.035500152388842</v>
-      </c>
-      <c r="M3">
-        <v>1.060816648420907</v>
+        <v>1.010562796159074</v>
       </c>
       <c r="N3">
-        <v>1.04580197981625</v>
+        <v>1.014850324711814</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029783127048355</v>
+        <v>0.9954138883328522</v>
       </c>
       <c r="D4">
-        <v>1.048458343264675</v>
+        <v>1.01377920980827</v>
       </c>
       <c r="E4">
-        <v>1.029793445137463</v>
-      </c>
-      <c r="F4">
-        <v>1.055393695590636</v>
+        <v>1.002059489306947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062240195051709</v>
+        <v>1.042674450072727</v>
       </c>
       <c r="J4">
-        <v>1.048454486735478</v>
+        <v>1.014935639322813</v>
       </c>
       <c r="K4">
-        <v>1.058005086960664</v>
+        <v>1.023714128491215</v>
       </c>
       <c r="L4">
-        <v>1.039545110604627</v>
-      </c>
-      <c r="M4">
-        <v>1.064866556340228</v>
+        <v>1.012133121497726</v>
       </c>
       <c r="N4">
-        <v>1.049943412366053</v>
+        <v>1.016376964345397</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031972995916181</v>
+        <v>0.996532926497143</v>
       </c>
       <c r="D5">
-        <v>1.050219550732914</v>
+        <v>1.014569954547133</v>
       </c>
       <c r="E5">
-        <v>1.031696387462625</v>
-      </c>
-      <c r="F5">
-        <v>1.057292393448496</v>
+        <v>1.002945943806954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063108130896657</v>
+        <v>1.042933480105832</v>
       </c>
       <c r="J5">
-        <v>1.050158712930681</v>
+        <v>1.015567961581144</v>
       </c>
       <c r="K5">
-        <v>1.059537048019461</v>
+        <v>1.024275384168046</v>
       </c>
       <c r="L5">
-        <v>1.041211343835358</v>
-      </c>
-      <c r="M5">
-        <v>1.066536719883573</v>
+        <v>1.012785232233329</v>
       </c>
       <c r="N5">
-        <v>1.05165005875793</v>
+        <v>1.017010184573863</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032338292287457</v>
+        <v>0.9967200420572988</v>
       </c>
       <c r="D6">
-        <v>1.050513378955554</v>
+        <v>1.014702156442976</v>
       </c>
       <c r="E6">
-        <v>1.032013812786282</v>
-      </c>
-      <c r="F6">
-        <v>1.057609224553951</v>
+        <v>1.003094252079036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063252712045573</v>
+        <v>1.042976558136885</v>
       </c>
       <c r="J6">
-        <v>1.050442905203006</v>
+        <v>1.015673635559106</v>
       </c>
       <c r="K6">
-        <v>1.059792502717966</v>
+        <v>1.024369110521477</v>
       </c>
       <c r="L6">
-        <v>1.04148916183398</v>
-      </c>
-      <c r="M6">
-        <v>1.066815303194818</v>
+        <v>1.012894258711174</v>
       </c>
       <c r="N6">
-        <v>1.05193465461588</v>
+        <v>1.017116008620994</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029812550129868</v>
+        <v>0.9954288932363975</v>
       </c>
       <c r="D7">
-        <v>1.048482004237409</v>
+        <v>1.013789813968371</v>
       </c>
       <c r="E7">
-        <v>1.029819013582141</v>
-      </c>
-      <c r="F7">
-        <v>1.055419199305414</v>
+        <v>1.002071369931785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062251870131284</v>
+        <v>1.042677939071388</v>
       </c>
       <c r="J7">
-        <v>1.048477390951252</v>
+        <v>1.014944121800652</v>
       </c>
       <c r="K7">
-        <v>1.058025676721214</v>
+        <v>1.02372166237796</v>
       </c>
       <c r="L7">
-        <v>1.039567506812417</v>
-      </c>
-      <c r="M7">
-        <v>1.064888997938053</v>
+        <v>1.012141866381743</v>
       </c>
       <c r="N7">
-        <v>1.049966349108441</v>
+        <v>1.016385458869326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018890295057613</v>
+        <v>0.9899167427296418</v>
       </c>
       <c r="D8">
-        <v>1.039704039081586</v>
+        <v>1.009892461062901</v>
       </c>
       <c r="E8">
-        <v>1.020327202211502</v>
-      </c>
-      <c r="F8">
-        <v>1.045965382750866</v>
+        <v>0.9977170359312576</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057894430214322</v>
+        <v>1.041369018688081</v>
       </c>
       <c r="J8">
-        <v>1.039964368789703</v>
+        <v>1.011821537668091</v>
       </c>
       <c r="K8">
-        <v>1.050371766799371</v>
+        <v>1.02094007948099</v>
       </c>
       <c r="L8">
-        <v>1.031238692180475</v>
-      </c>
-      <c r="M8">
-        <v>1.056556740996782</v>
+        <v>1.008928020478825</v>
       </c>
       <c r="N8">
-        <v>1.041441237478965</v>
+        <v>1.013258440309133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9980596406504434</v>
+        <v>0.9797371075872962</v>
       </c>
       <c r="D9">
-        <v>1.022997737893722</v>
+        <v>1.002690394354372</v>
       </c>
       <c r="E9">
-        <v>1.002228276361607</v>
-      </c>
-      <c r="F9">
-        <v>1.028011472075754</v>
+        <v>0.9897268016483405</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049474091881259</v>
+        <v>1.038825373899396</v>
       </c>
       <c r="J9">
-        <v>1.023681104564644</v>
+        <v>1.006026266694769</v>
       </c>
       <c r="K9">
-        <v>1.035728395472292</v>
+        <v>1.015739972077269</v>
       </c>
       <c r="L9">
-        <v>1.015285304492355</v>
-      </c>
-      <c r="M9">
-        <v>1.040665861515821</v>
+        <v>1.002988782742057</v>
       </c>
       <c r="N9">
-        <v>1.02513484915099</v>
+        <v>1.007454939386301</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828717731583707</v>
+        <v>0.9726047675544278</v>
       </c>
       <c r="D10">
-        <v>1.010851656739105</v>
+        <v>0.997645751239342</v>
       </c>
       <c r="E10">
-        <v>0.9890418313681322</v>
-      </c>
-      <c r="F10">
-        <v>1.014985801713414</v>
+        <v>0.9841662446135102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043264897550127</v>
+        <v>1.036961752182556</v>
       </c>
       <c r="J10">
-        <v>1.011781838567245</v>
+        <v>1.001949106148605</v>
       </c>
       <c r="K10">
-        <v>1.025027706902849</v>
+        <v>1.012057642874018</v>
       </c>
       <c r="L10">
-        <v>1.00361179834383</v>
-      </c>
-      <c r="M10">
-        <v>1.029089653649886</v>
+        <v>0.9988273909156523</v>
       </c>
       <c r="N10">
-        <v>1.013218684831009</v>
+        <v>1.003371988804505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9759222491949151</v>
+        <v>0.9694265299617906</v>
       </c>
       <c r="D11">
-        <v>1.005305109437123</v>
+        <v>0.995399225544174</v>
       </c>
       <c r="E11">
-        <v>0.9830123721632503</v>
-      </c>
-      <c r="F11">
-        <v>1.009044405124833</v>
+        <v>0.9816981173737218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040408584280135</v>
+        <v>1.03611292455602</v>
       </c>
       <c r="J11">
-        <v>1.006332166509666</v>
+        <v>1.000128930619815</v>
       </c>
       <c r="K11">
-        <v>1.020127667875303</v>
+        <v>1.010408430438839</v>
       </c>
       <c r="L11">
-        <v>0.9982619219008639</v>
-      </c>
-      <c r="M11">
-        <v>1.023797749303228</v>
+        <v>0.996973635508422</v>
       </c>
       <c r="N11">
-        <v>1.007761273614022</v>
+        <v>1.001549228417687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9732782154944819</v>
+        <v>0.9682317679477324</v>
       </c>
       <c r="D12">
-        <v>1.003196819170932</v>
+        <v>0.9945550195918403</v>
       </c>
       <c r="E12">
-        <v>0.9807192303273451</v>
-      </c>
-      <c r="F12">
-        <v>1.006787083184</v>
+        <v>0.9807718257600128</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039319728718539</v>
+        <v>1.035791153356267</v>
       </c>
       <c r="J12">
-        <v>1.004258182644969</v>
+        <v>0.9994442407727921</v>
       </c>
       <c r="K12">
-        <v>1.018263028385604</v>
+        <v>1.009787285635538</v>
       </c>
       <c r="L12">
-        <v>0.9962253824492652</v>
-      </c>
-      <c r="M12">
-        <v>1.021785398409074</v>
+        <v>0.9962769174650643</v>
       </c>
       <c r="N12">
-        <v>1.005684344454348</v>
+        <v>1.000863566232546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9738483242994326</v>
+        <v>0.9684887041685887</v>
       </c>
       <c r="D13">
-        <v>1.00365131690748</v>
+        <v>0.9947365525082913</v>
       </c>
       <c r="E13">
-        <v>0.9812136380329478</v>
-      </c>
-      <c r="F13">
-        <v>1.007273660579076</v>
+        <v>0.9809709567656291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03955460245278</v>
+        <v>1.035860470726776</v>
       </c>
       <c r="J13">
-        <v>1.004705400648324</v>
+        <v>0.9995915042883714</v>
       </c>
       <c r="K13">
-        <v>1.018665096164461</v>
+        <v>1.009920915928478</v>
       </c>
       <c r="L13">
-        <v>0.996664550223861</v>
-      </c>
-      <c r="M13">
-        <v>1.022219252543915</v>
+        <v>0.996426740762951</v>
       </c>
       <c r="N13">
-        <v>1.006132197558565</v>
+        <v>1.001011038879209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9757050133057716</v>
+        <v>0.9693280650390885</v>
       </c>
       <c r="D14">
-        <v>1.005131849102239</v>
+        <v>0.9953296444871782</v>
       </c>
       <c r="E14">
-        <v>0.9828239475299481</v>
-      </c>
-      <c r="F14">
-        <v>1.008858875765017</v>
+        <v>0.981621746713454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040319165377334</v>
+        <v>1.036086460152092</v>
       </c>
       <c r="J14">
-        <v>1.006161777310553</v>
+        <v>1.000072511530841</v>
       </c>
       <c r="K14">
-        <v>1.019974473621821</v>
+        <v>1.010357262898453</v>
       </c>
       <c r="L14">
-        <v>0.9980946197501314</v>
-      </c>
-      <c r="M14">
-        <v>1.023632390653922</v>
+        <v>0.9969162130270467</v>
       </c>
       <c r="N14">
-        <v>1.007590642442703</v>
+        <v>1.001492729207135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9768404591129747</v>
+        <v>0.9698433159423638</v>
       </c>
       <c r="D15">
-        <v>1.006037525475523</v>
+        <v>0.995693763921206</v>
       </c>
       <c r="E15">
-        <v>0.9838088384261499</v>
-      </c>
-      <c r="F15">
-        <v>1.009828728435022</v>
+        <v>0.9820214445414994</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040786453282993</v>
+        <v>1.036224835321243</v>
       </c>
       <c r="J15">
-        <v>1.007052342552107</v>
+        <v>1.000367725417116</v>
       </c>
       <c r="K15">
-        <v>1.020775174157493</v>
+        <v>1.010624966952613</v>
       </c>
       <c r="L15">
-        <v>0.9989690284142662</v>
-      </c>
-      <c r="M15">
-        <v>1.024496728215968</v>
+        <v>0.9972167017650497</v>
       </c>
       <c r="N15">
-        <v>1.008482472389049</v>
+        <v>1.00178836233099</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9833245894674267</v>
+        <v>0.9728137426925714</v>
       </c>
       <c r="D16">
-        <v>1.0112133108349</v>
+        <v>0.9977935019223348</v>
       </c>
       <c r="E16">
-        <v>0.9894348022037485</v>
-      </c>
-      <c r="F16">
-        <v>1.015373344267819</v>
+        <v>0.9843287364797341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043450708025626</v>
+        <v>1.037017188167568</v>
       </c>
       <c r="J16">
-        <v>1.012136838540462</v>
+        <v>1.002068720766594</v>
       </c>
       <c r="K16">
-        <v>1.025346922640325</v>
+        <v>1.012165914718746</v>
       </c>
       <c r="L16">
-        <v>1.003960223811588</v>
-      </c>
-      <c r="M16">
-        <v>1.029434587855796</v>
+        <v>0.9989492959206612</v>
       </c>
       <c r="N16">
-        <v>1.013574188944907</v>
+        <v>1.003491773288971</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9872876888731229</v>
+        <v>0.9746524557230027</v>
       </c>
       <c r="D17">
-        <v>1.014379828313592</v>
+        <v>0.999093690430168</v>
       </c>
       <c r="E17">
-        <v>0.9928746269567977</v>
-      </c>
-      <c r="F17">
-        <v>1.01876730057918</v>
+        <v>0.9857595689891311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045075256219338</v>
+        <v>1.037502871941876</v>
       </c>
       <c r="J17">
-        <v>1.01524330259562</v>
+        <v>1.003120800565469</v>
       </c>
       <c r="K17">
-        <v>1.028140338778385</v>
+        <v>1.013117629218795</v>
       </c>
       <c r="L17">
-        <v>1.007008753961214</v>
-      </c>
-      <c r="M17">
-        <v>1.032454082637169</v>
+        <v>1.000021978237111</v>
       </c>
       <c r="N17">
-        <v>1.01668506453534</v>
+        <v>1.004545347161836</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9895638018525962</v>
+        <v>0.9757163242027751</v>
       </c>
       <c r="D18">
-        <v>1.016199462661211</v>
+        <v>0.9998460995457771</v>
       </c>
       <c r="E18">
-        <v>0.9948505938434605</v>
-      </c>
-      <c r="F18">
-        <v>1.020718267182884</v>
+        <v>0.9865883564910212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046006851752097</v>
+        <v>1.037782136929913</v>
       </c>
       <c r="J18">
-        <v>1.017026957703564</v>
+        <v>1.003729205893819</v>
       </c>
       <c r="K18">
-        <v>1.029744310605908</v>
+        <v>1.013667490040879</v>
       </c>
       <c r="L18">
-        <v>1.008758808707279</v>
-      </c>
-      <c r="M18">
-        <v>1.034188709059274</v>
+        <v>1.000642679036119</v>
       </c>
       <c r="N18">
-        <v>1.018471252638125</v>
+        <v>1.005154616495538</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903340604871586</v>
+        <v>0.976077634478327</v>
       </c>
       <c r="D19">
-        <v>1.016815409609753</v>
+        <v>1.000101651119938</v>
       </c>
       <c r="E19">
-        <v>0.9955193399699104</v>
-      </c>
-      <c r="F19">
-        <v>1.021378777056661</v>
+        <v>0.9868699822062473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04632186697604</v>
+        <v>1.03787668169037</v>
       </c>
       <c r="J19">
-        <v>1.017630480122702</v>
+        <v>1.003935775928122</v>
       </c>
       <c r="K19">
-        <v>1.030287043505498</v>
+        <v>1.013854096154315</v>
       </c>
       <c r="L19">
-        <v>1.009350904860559</v>
-      </c>
-      <c r="M19">
-        <v>1.034775792664844</v>
+        <v>1.000853488429394</v>
       </c>
       <c r="N19">
-        <v>1.019075632128324</v>
+        <v>1.005361479882983</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868662016789423</v>
+        <v>0.9744560760357329</v>
       </c>
       <c r="D20">
-        <v>1.014042951954067</v>
+        <v>0.9989548127515294</v>
       </c>
       <c r="E20">
-        <v>0.9925087502460396</v>
-      </c>
-      <c r="F20">
-        <v>1.018406161441276</v>
+        <v>0.9856066565431174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044902628157601</v>
+        <v>1.037451180435019</v>
       </c>
       <c r="J20">
-        <v>1.014912968934888</v>
+        <v>1.003008468518471</v>
       </c>
       <c r="K20">
-        <v>1.027843287067275</v>
+        <v>1.013016065447948</v>
       </c>
       <c r="L20">
-        <v>1.006684615793436</v>
-      </c>
-      <c r="M20">
-        <v>1.032132901925366</v>
+        <v>0.9999074068708209</v>
       </c>
       <c r="N20">
-        <v>1.01635426176292</v>
+        <v>1.004432855590447</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9751600534979671</v>
+        <v>0.9690812928321716</v>
       </c>
       <c r="D21">
-        <v>1.004697239327859</v>
+        <v>0.9951552661321442</v>
       </c>
       <c r="E21">
-        <v>0.9823512781350178</v>
-      </c>
-      <c r="F21">
-        <v>1.008393507154476</v>
+        <v>0.981430371831234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040094814589621</v>
+        <v>1.036020092328196</v>
       </c>
       <c r="J21">
-        <v>1.005734328627224</v>
+        <v>0.999931107281358</v>
       </c>
       <c r="K21">
-        <v>1.019590164191537</v>
+        <v>1.010229008482048</v>
       </c>
       <c r="L21">
-        <v>0.9976749068599428</v>
-      </c>
-      <c r="M21">
-        <v>1.023217587890459</v>
+        <v>0.9967723036718732</v>
       </c>
       <c r="N21">
-        <v>1.007162586733214</v>
+        <v>1.001351124147399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.96743318403958</v>
+        <v>0.9656192698799141</v>
       </c>
       <c r="D22">
-        <v>0.9985401189729213</v>
+        <v>0.992709729788339</v>
       </c>
       <c r="E22">
-        <v>0.975651705667837</v>
-      </c>
-      <c r="F22">
-        <v>1.001803194061273</v>
+        <v>0.9787492557651889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036908880381363</v>
+        <v>1.035082722751727</v>
       </c>
       <c r="J22">
-        <v>0.9996724340231888</v>
+        <v>0.997946313600202</v>
       </c>
       <c r="K22">
-        <v>1.014140551972987</v>
+        <v>1.00842700509849</v>
       </c>
       <c r="L22">
-        <v>0.9917214460769737</v>
-      </c>
-      <c r="M22">
-        <v>1.017339013761126</v>
+        <v>0.9947537850030809</v>
       </c>
       <c r="N22">
-        <v>1.001092083543532</v>
+        <v>0.9993635118315563</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9715666265000344</v>
+        <v>0.967462644452926</v>
       </c>
       <c r="D23">
-        <v>1.001832631929007</v>
+        <v>0.9940116639964672</v>
       </c>
       <c r="E23">
-        <v>0.9792350529077509</v>
-      </c>
-      <c r="F23">
-        <v>1.00532676506629</v>
+        <v>0.9801759677730492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038614286539126</v>
+        <v>1.035583269485345</v>
       </c>
       <c r="J23">
-        <v>1.002915465032135</v>
+        <v>0.9990033543908298</v>
       </c>
       <c r="K23">
-        <v>1.017055899261149</v>
+        <v>1.009387105423303</v>
       </c>
       <c r="L23">
-        <v>0.9949067568455739</v>
-      </c>
-      <c r="M23">
-        <v>1.020483047457928</v>
+        <v>0.9958284558355806</v>
       </c>
       <c r="N23">
-        <v>1.004339720028492</v>
+        <v>1.000422053741351</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9870567628046566</v>
+        <v>0.9745448381546737</v>
       </c>
       <c r="D24">
-        <v>1.014195256013111</v>
+        <v>0.9990175840127505</v>
       </c>
       <c r="E24">
-        <v>0.9926741677981589</v>
-      </c>
-      <c r="F24">
-        <v>1.018569432892797</v>
+        <v>0.9856757689648181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044980680519413</v>
+        <v>1.037474550030115</v>
       </c>
       <c r="J24">
-        <v>1.015062319556137</v>
+        <v>1.003059242747829</v>
       </c>
       <c r="K24">
-        <v>1.027977590051201</v>
+        <v>1.013061973969544</v>
       </c>
       <c r="L24">
-        <v>1.00683116635128</v>
-      </c>
-      <c r="M24">
-        <v>1.0322781114979</v>
+        <v>0.9999591920927424</v>
       </c>
       <c r="N24">
-        <v>1.016503824479182</v>
+        <v>1.004483701925034</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003654855954362</v>
+        <v>0.9824272652019224</v>
       </c>
       <c r="D25">
-        <v>1.027480115824421</v>
+        <v>1.004593758496335</v>
       </c>
       <c r="E25">
-        <v>1.007088661608919</v>
-      </c>
-      <c r="F25">
-        <v>1.032824028979938</v>
+        <v>0.991832096093935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051748031794795</v>
+        <v>1.039511902071787</v>
       </c>
       <c r="J25">
-        <v>1.028059842563726</v>
+        <v>1.007560847740973</v>
       </c>
       <c r="K25">
-        <v>1.03966630645191</v>
+        <v>1.017121178394299</v>
       </c>
       <c r="L25">
-        <v>1.019577922932883</v>
-      </c>
-      <c r="M25">
-        <v>1.044933300501529</v>
+        <v>1.004558545533154</v>
       </c>
       <c r="N25">
-        <v>1.029519805460278</v>
+        <v>1.00899169971361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9884671434633583</v>
+        <v>1.017235370415475</v>
       </c>
       <c r="D2">
-        <v>1.008867063512054</v>
+        <v>1.022499601845181</v>
       </c>
       <c r="E2">
-        <v>0.9965752217565824</v>
+        <v>1.018665282083338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041016242298574</v>
+        <v>1.026651686960011</v>
       </c>
       <c r="J2">
-        <v>1.010998358408475</v>
+        <v>1.022450639559592</v>
       </c>
       <c r="K2">
-        <v>1.020204232950172</v>
+        <v>1.025333801797923</v>
       </c>
       <c r="L2">
-        <v>1.008082476288721</v>
+        <v>1.021510822975832</v>
       </c>
       <c r="N2">
-        <v>1.012434092040547</v>
+        <v>1.023902636744495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9927200541737127</v>
+        <v>1.018117027998092</v>
       </c>
       <c r="D3">
-        <v>1.011874952167614</v>
+        <v>1.0231225573549</v>
       </c>
       <c r="E3">
-        <v>0.999929006882188</v>
+        <v>1.019410289531132</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04204136160729</v>
+        <v>1.026769453774634</v>
       </c>
       <c r="J3">
-        <v>1.013411164618171</v>
+        <v>1.022968452246334</v>
       </c>
       <c r="K3">
-        <v>1.022358112426017</v>
+        <v>1.025763938586235</v>
       </c>
       <c r="L3">
-        <v>1.010562796159074</v>
+        <v>1.022061857090794</v>
       </c>
       <c r="N3">
-        <v>1.014850324711814</v>
+        <v>1.024421184784646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9954138883328522</v>
+        <v>1.018687530390998</v>
       </c>
       <c r="D4">
-        <v>1.01377920980827</v>
+        <v>1.023525114953858</v>
       </c>
       <c r="E4">
-        <v>1.002059489306947</v>
+        <v>1.019892789334367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042674450072727</v>
+        <v>1.026843600842647</v>
       </c>
       <c r="J4">
-        <v>1.014935639322813</v>
+        <v>1.023302916375415</v>
       </c>
       <c r="K4">
-        <v>1.023714128491215</v>
+        <v>1.026041042186972</v>
       </c>
       <c r="L4">
-        <v>1.012133121497726</v>
+        <v>1.022418181792492</v>
       </c>
       <c r="N4">
-        <v>1.016376964345397</v>
+        <v>1.024756123891154</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.996532926497143</v>
+        <v>1.018927370907646</v>
       </c>
       <c r="D5">
-        <v>1.014569954547133</v>
+        <v>1.023694219983082</v>
       </c>
       <c r="E5">
-        <v>1.002945943806954</v>
+        <v>1.020095733600907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042933480105832</v>
+        <v>1.026874279136895</v>
       </c>
       <c r="J5">
-        <v>1.015567961581144</v>
+        <v>1.02344338132738</v>
       </c>
       <c r="K5">
-        <v>1.024275384168046</v>
+        <v>1.026157242189603</v>
       </c>
       <c r="L5">
-        <v>1.012785232233329</v>
+        <v>1.022567924053104</v>
       </c>
       <c r="N5">
-        <v>1.017010184573863</v>
+        <v>1.024896788319461</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9967200420572988</v>
+        <v>1.018967641224162</v>
       </c>
       <c r="D6">
-        <v>1.014702156442976</v>
+        <v>1.023722605774838</v>
       </c>
       <c r="E6">
-        <v>1.003094252079036</v>
+        <v>1.020129814731765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042976558136885</v>
+        <v>1.026879401212484</v>
       </c>
       <c r="J6">
-        <v>1.015673635559106</v>
+        <v>1.023466957543746</v>
       </c>
       <c r="K6">
-        <v>1.024369110521477</v>
+        <v>1.026176735379431</v>
       </c>
       <c r="L6">
-        <v>1.012894258711174</v>
+        <v>1.022593063078271</v>
       </c>
       <c r="N6">
-        <v>1.017116008620994</v>
+        <v>1.024920398016759</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9954288932363975</v>
+        <v>1.018690735148235</v>
       </c>
       <c r="D7">
-        <v>1.013789813968371</v>
+        <v>1.023527375057366</v>
       </c>
       <c r="E7">
-        <v>1.002071369931785</v>
+        <v>1.019895500689426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042677939071388</v>
+        <v>1.026844012706388</v>
       </c>
       <c r="J7">
-        <v>1.014944121800652</v>
+        <v>1.023304793841475</v>
       </c>
       <c r="K7">
-        <v>1.02372166237796</v>
+        <v>1.02604259601548</v>
       </c>
       <c r="L7">
-        <v>1.012141866381743</v>
+        <v>1.022420182880116</v>
       </c>
       <c r="N7">
-        <v>1.016385458869326</v>
+        <v>1.024758004023431</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9899167427296418</v>
+        <v>1.017533327658648</v>
       </c>
       <c r="D8">
-        <v>1.009892461062901</v>
+        <v>1.022710242536151</v>
       </c>
       <c r="E8">
-        <v>0.9977170359312576</v>
+        <v>1.018916970789794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041369018688081</v>
+        <v>1.026691911940271</v>
       </c>
       <c r="J8">
-        <v>1.011821537668091</v>
+        <v>1.022625759293657</v>
       </c>
       <c r="K8">
-        <v>1.02094007948099</v>
+        <v>1.025479421066646</v>
       </c>
       <c r="L8">
-        <v>1.008928020478825</v>
+        <v>1.02169709463668</v>
       </c>
       <c r="N8">
-        <v>1.013258440309133</v>
+        <v>1.024078005168669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9797371075872962</v>
+        <v>1.01549396967268</v>
       </c>
       <c r="D9">
-        <v>1.002690394354372</v>
+        <v>1.021266322367195</v>
       </c>
       <c r="E9">
-        <v>0.9897268016483405</v>
+        <v>1.017196042410193</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038825373899396</v>
+        <v>1.026408185920489</v>
       </c>
       <c r="J9">
-        <v>1.006026266694769</v>
+        <v>1.021424709145123</v>
       </c>
       <c r="K9">
-        <v>1.015739972077269</v>
+        <v>1.024477724478011</v>
       </c>
       <c r="L9">
-        <v>1.002988782742057</v>
+        <v>1.020421206504582</v>
       </c>
       <c r="N9">
-        <v>1.007454939386301</v>
+        <v>1.02287524939116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9726047675544278</v>
+        <v>1.014134569319631</v>
       </c>
       <c r="D10">
-        <v>0.997645751239342</v>
+        <v>1.020301105914231</v>
       </c>
       <c r="E10">
-        <v>0.9841662446135102</v>
+        <v>1.016051116015023</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036961752182556</v>
+        <v>1.026208530526977</v>
       </c>
       <c r="J10">
-        <v>1.001949106148605</v>
+        <v>1.020621053323673</v>
       </c>
       <c r="K10">
-        <v>1.012057642874018</v>
+        <v>1.02380374874295</v>
       </c>
       <c r="L10">
-        <v>0.9988273909156523</v>
+        <v>1.019569537242814</v>
       </c>
       <c r="N10">
-        <v>1.003371988804505</v>
+        <v>1.022070452286264</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9694265299617906</v>
+        <v>1.013545990226507</v>
       </c>
       <c r="D11">
-        <v>0.995399225544174</v>
+        <v>1.01988256104529</v>
       </c>
       <c r="E11">
-        <v>0.9816981173737218</v>
+        <v>1.015555929771821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03611292455602</v>
+        <v>1.026119597194223</v>
       </c>
       <c r="J11">
-        <v>1.000128930619815</v>
+        <v>1.020272375471675</v>
       </c>
       <c r="K11">
-        <v>1.010408430438839</v>
+        <v>1.02351046138395</v>
       </c>
       <c r="L11">
-        <v>0.996973635508422</v>
+        <v>1.01920051518807</v>
       </c>
       <c r="N11">
-        <v>1.001549228417687</v>
+        <v>1.021721279271721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9682317679477324</v>
+        <v>1.013327374485891</v>
       </c>
       <c r="D12">
-        <v>0.9945550195918403</v>
+        <v>1.019727006468786</v>
       </c>
       <c r="E12">
-        <v>0.9807718257600128</v>
+        <v>1.015372083443577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035791153356267</v>
+        <v>1.026086191479045</v>
       </c>
       <c r="J12">
-        <v>0.9994442407727921</v>
+        <v>1.020142758565951</v>
       </c>
       <c r="K12">
-        <v>1.009787285635538</v>
+        <v>1.023401304661507</v>
       </c>
       <c r="L12">
-        <v>0.9962769174650643</v>
+        <v>1.019063408591491</v>
       </c>
       <c r="N12">
-        <v>1.000863566232546</v>
+        <v>1.021591478295125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9684887041685887</v>
+        <v>1.013374267889685</v>
       </c>
       <c r="D13">
-        <v>0.9947365525082913</v>
+        <v>1.019760377425018</v>
       </c>
       <c r="E13">
-        <v>0.9809709567656291</v>
+        <v>1.01541151510243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035860470726776</v>
+        <v>1.026093373934574</v>
       </c>
       <c r="J13">
-        <v>0.9995915042883714</v>
+        <v>1.020170566448464</v>
       </c>
       <c r="K13">
-        <v>1.009920915928478</v>
+        <v>1.023424728935804</v>
       </c>
       <c r="L13">
-        <v>0.996426740762951</v>
+        <v>1.019092820002985</v>
       </c>
       <c r="N13">
-        <v>1.001011038879209</v>
+        <v>1.02161932566802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9693280650390885</v>
+        <v>1.013527919195985</v>
       </c>
       <c r="D14">
-        <v>0.9953296444871782</v>
+        <v>1.019869704648348</v>
       </c>
       <c r="E14">
-        <v>0.981621746713454</v>
+        <v>1.015540731174885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036086460152092</v>
+        <v>1.026116843449401</v>
       </c>
       <c r="J14">
-        <v>1.000072511530841</v>
+        <v>1.020261663380519</v>
       </c>
       <c r="K14">
-        <v>1.010357262898453</v>
+        <v>1.023501442869027</v>
       </c>
       <c r="L14">
-        <v>0.9969162130270467</v>
+        <v>1.019189182628572</v>
       </c>
       <c r="N14">
-        <v>1.001492729207135</v>
+        <v>1.021710551968168</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9698433159423638</v>
+        <v>1.013622590030851</v>
       </c>
       <c r="D15">
-        <v>0.995693763921206</v>
+        <v>1.019937053099774</v>
       </c>
       <c r="E15">
-        <v>0.9820214445414994</v>
+        <v>1.015620357155494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036224835321243</v>
+        <v>1.026131254535265</v>
       </c>
       <c r="J15">
-        <v>1.000367725417116</v>
+        <v>1.020317777669422</v>
       </c>
       <c r="K15">
-        <v>1.010624966952613</v>
+        <v>1.0235486801745</v>
       </c>
       <c r="L15">
-        <v>0.9972167017650497</v>
+        <v>1.019248550171735</v>
       </c>
       <c r="N15">
-        <v>1.00178836233099</v>
+        <v>1.021766745945798</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9728137426925714</v>
+        <v>1.014173632535974</v>
       </c>
       <c r="D16">
-        <v>0.9977935019223348</v>
+        <v>1.020328870870377</v>
       </c>
       <c r="E16">
-        <v>0.9843287364797341</v>
+        <v>1.016083992133628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037017188167568</v>
+        <v>1.026214380536402</v>
       </c>
       <c r="J16">
-        <v>1.002068720766594</v>
+        <v>1.020644179496197</v>
       </c>
       <c r="K16">
-        <v>1.012165914718746</v>
+        <v>1.023823182792292</v>
       </c>
       <c r="L16">
-        <v>0.9989492959206612</v>
+        <v>1.019594022993102</v>
       </c>
       <c r="N16">
-        <v>1.003491773288971</v>
+        <v>1.022093611300605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9746524557230027</v>
+        <v>1.014519301234118</v>
       </c>
       <c r="D17">
-        <v>0.999093690430168</v>
+        <v>1.020574488456754</v>
       </c>
       <c r="E17">
-        <v>0.9857595689891311</v>
+        <v>1.016374973023818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037502871941876</v>
+        <v>1.026265859595559</v>
       </c>
       <c r="J17">
-        <v>1.003120800565469</v>
+        <v>1.020848738950854</v>
       </c>
       <c r="K17">
-        <v>1.013117629218795</v>
+        <v>1.023994983381915</v>
       </c>
       <c r="L17">
-        <v>1.000021978237111</v>
+        <v>1.019810664606907</v>
       </c>
       <c r="N17">
-        <v>1.004545347161836</v>
+        <v>1.022298461253151</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9757163242027751</v>
+        <v>1.014720928704195</v>
       </c>
       <c r="D18">
-        <v>0.9998460995457771</v>
+        <v>1.020717695054238</v>
       </c>
       <c r="E18">
-        <v>0.9865883564910212</v>
+        <v>1.016544752573334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037782136929913</v>
+        <v>1.026295646999817</v>
       </c>
       <c r="J18">
-        <v>1.003729205893819</v>
+        <v>1.020967988407267</v>
       </c>
       <c r="K18">
-        <v>1.013667490040879</v>
+        <v>1.024095051630443</v>
       </c>
       <c r="L18">
-        <v>1.000642679036119</v>
+        <v>1.019937004404745</v>
       </c>
       <c r="N18">
-        <v>1.005154616495538</v>
+        <v>1.022417880057471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.976077634478327</v>
+        <v>1.014789679233066</v>
       </c>
       <c r="D19">
-        <v>1.000101651119938</v>
+        <v>1.020766514914993</v>
       </c>
       <c r="E19">
-        <v>0.9868699822062473</v>
+        <v>1.016602652346913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03787668169037</v>
+        <v>1.026305763092007</v>
       </c>
       <c r="J19">
-        <v>1.003935775928122</v>
+        <v>1.021008638055712</v>
       </c>
       <c r="K19">
-        <v>1.013854096154315</v>
+        <v>1.024129148508595</v>
       </c>
       <c r="L19">
-        <v>1.000853488429394</v>
+        <v>1.019980078972053</v>
       </c>
       <c r="N19">
-        <v>1.005361479882983</v>
+        <v>1.02245858743308</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9744560760357329</v>
+        <v>1.014482213752447</v>
       </c>
       <c r="D20">
-        <v>0.9989548127515294</v>
+        <v>1.020548141999344</v>
       </c>
       <c r="E20">
-        <v>0.9856066565431174</v>
+        <v>1.016343747794682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037451180435019</v>
+        <v>1.026260361141917</v>
       </c>
       <c r="J20">
-        <v>1.003008468518471</v>
+        <v>1.020826798538825</v>
       </c>
       <c r="K20">
-        <v>1.013016065447948</v>
+        <v>1.023976565289139</v>
       </c>
       <c r="L20">
-        <v>0.9999074068708209</v>
+        <v>1.019787423443144</v>
       </c>
       <c r="N20">
-        <v>1.004432855590447</v>
+        <v>1.022276489683221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9690812928321716</v>
+        <v>1.013482672465072</v>
       </c>
       <c r="D21">
-        <v>0.9951552661321442</v>
+        <v>1.019837512931754</v>
       </c>
       <c r="E21">
-        <v>0.981430371831234</v>
+        <v>1.015502677823254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036020092328196</v>
+        <v>1.026109942522063</v>
       </c>
       <c r="J21">
-        <v>0.999931107281358</v>
+        <v>1.02023484042264</v>
       </c>
       <c r="K21">
-        <v>1.010229008482048</v>
+        <v>1.023478858500233</v>
       </c>
       <c r="L21">
-        <v>0.9967723036718732</v>
+        <v>1.019160807203785</v>
       </c>
       <c r="N21">
-        <v>1.001351124147399</v>
+        <v>1.021683690918612</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9656192698799141</v>
+        <v>1.012854272346968</v>
       </c>
       <c r="D22">
-        <v>0.992709729788339</v>
+        <v>1.01939020176197</v>
       </c>
       <c r="E22">
-        <v>0.9787492557651889</v>
+        <v>1.01497437303826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035082722751727</v>
+        <v>1.026013216996972</v>
       </c>
       <c r="J22">
-        <v>0.997946313600202</v>
+        <v>1.01986206082751</v>
       </c>
       <c r="K22">
-        <v>1.00842700509849</v>
+        <v>1.023164677150981</v>
       </c>
       <c r="L22">
-        <v>0.9947537850030809</v>
+        <v>1.018766624640126</v>
       </c>
       <c r="N22">
-        <v>0.9993635118315563</v>
+        <v>1.021310381933699</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.967462644452926</v>
+        <v>1.013187393892253</v>
       </c>
       <c r="D23">
-        <v>0.9940116639964672</v>
+        <v>1.019627377687804</v>
       </c>
       <c r="E23">
-        <v>0.9801759677730492</v>
+        <v>1.015254388598159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035583269485345</v>
+        <v>1.02606469666741</v>
       </c>
       <c r="J23">
-        <v>0.9990033543908298</v>
+        <v>1.020059734071737</v>
       </c>
       <c r="K23">
-        <v>1.009387105423303</v>
+        <v>1.023331348992459</v>
       </c>
       <c r="L23">
-        <v>0.9958284558355806</v>
+        <v>1.018975607209363</v>
       </c>
       <c r="N23">
-        <v>1.000422053741351</v>
+        <v>1.021508335896606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9745448381546737</v>
+        <v>1.014498971974349</v>
       </c>
       <c r="D24">
-        <v>0.9990175840127505</v>
+        <v>1.020560047008715</v>
       </c>
       <c r="E24">
-        <v>0.9856757689648181</v>
+        <v>1.01635785696089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037474550030115</v>
+        <v>1.026262846396402</v>
       </c>
       <c r="J24">
-        <v>1.003059242747829</v>
+        <v>1.02083671267253</v>
       </c>
       <c r="K24">
-        <v>1.013061973969544</v>
+        <v>1.023984888065559</v>
       </c>
       <c r="L24">
-        <v>0.9999591920927424</v>
+        <v>1.019797925197649</v>
       </c>
       <c r="N24">
-        <v>1.004483701925034</v>
+        <v>1.022286417896133</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9824272652019224</v>
+        <v>1.016021167902524</v>
       </c>
       <c r="D25">
-        <v>1.004593758496335</v>
+        <v>1.021640076804447</v>
       </c>
       <c r="E25">
-        <v>0.991832096093935</v>
+        <v>1.017640534809344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039511902071787</v>
+        <v>1.026483391380355</v>
       </c>
       <c r="J25">
-        <v>1.007560847740973</v>
+        <v>1.021735735667254</v>
       </c>
       <c r="K25">
-        <v>1.017121178394299</v>
+        <v>1.024737781916939</v>
       </c>
       <c r="L25">
-        <v>1.004558545533154</v>
+        <v>1.02075124951989</v>
       </c>
       <c r="N25">
-        <v>1.00899169971361</v>
+        <v>1.023186717606628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017235370415475</v>
+        <v>0.9884671434633586</v>
       </c>
       <c r="D2">
-        <v>1.022499601845181</v>
+        <v>1.008867063512054</v>
       </c>
       <c r="E2">
-        <v>1.018665282083338</v>
+        <v>0.9965752217565825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026651686960011</v>
+        <v>1.041016242298575</v>
       </c>
       <c r="J2">
-        <v>1.022450639559592</v>
+        <v>1.010998358408475</v>
       </c>
       <c r="K2">
-        <v>1.025333801797923</v>
+        <v>1.020204232950172</v>
       </c>
       <c r="L2">
-        <v>1.021510822975832</v>
+        <v>1.008082476288721</v>
       </c>
       <c r="N2">
-        <v>1.023902636744495</v>
+        <v>1.012434092040547</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018117027998092</v>
+        <v>0.9927200541737131</v>
       </c>
       <c r="D3">
-        <v>1.0231225573549</v>
+        <v>1.011874952167614</v>
       </c>
       <c r="E3">
-        <v>1.019410289531132</v>
+        <v>0.9999290068821886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026769453774634</v>
+        <v>1.04204136160729</v>
       </c>
       <c r="J3">
-        <v>1.022968452246334</v>
+        <v>1.013411164618172</v>
       </c>
       <c r="K3">
-        <v>1.025763938586235</v>
+        <v>1.022358112426017</v>
       </c>
       <c r="L3">
-        <v>1.022061857090794</v>
+        <v>1.010562796159074</v>
       </c>
       <c r="N3">
-        <v>1.024421184784646</v>
+        <v>1.014850324711815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018687530390998</v>
+        <v>0.9954138883328527</v>
       </c>
       <c r="D4">
-        <v>1.023525114953858</v>
+        <v>1.013779209808271</v>
       </c>
       <c r="E4">
-        <v>1.019892789334367</v>
+        <v>1.002059489306947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026843600842647</v>
+        <v>1.042674450072728</v>
       </c>
       <c r="J4">
-        <v>1.023302916375415</v>
+        <v>1.014935639322814</v>
       </c>
       <c r="K4">
-        <v>1.026041042186972</v>
+        <v>1.023714128491215</v>
       </c>
       <c r="L4">
-        <v>1.022418181792492</v>
+        <v>1.012133121497727</v>
       </c>
       <c r="N4">
-        <v>1.024756123891154</v>
+        <v>1.016376964345397</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018927370907646</v>
+        <v>0.996532926497143</v>
       </c>
       <c r="D5">
-        <v>1.023694219983082</v>
+        <v>1.014569954547133</v>
       </c>
       <c r="E5">
-        <v>1.020095733600907</v>
+        <v>1.002945943806954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026874279136895</v>
+        <v>1.042933480105832</v>
       </c>
       <c r="J5">
-        <v>1.02344338132738</v>
+        <v>1.015567961581144</v>
       </c>
       <c r="K5">
-        <v>1.026157242189603</v>
+        <v>1.024275384168045</v>
       </c>
       <c r="L5">
-        <v>1.022567924053104</v>
+        <v>1.012785232233329</v>
       </c>
       <c r="N5">
-        <v>1.024896788319461</v>
+        <v>1.017010184573863</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018967641224162</v>
+        <v>0.9967200420572995</v>
       </c>
       <c r="D6">
-        <v>1.023722605774838</v>
+        <v>1.014702156442977</v>
       </c>
       <c r="E6">
-        <v>1.020129814731765</v>
+        <v>1.003094252079037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026879401212484</v>
+        <v>1.042976558136885</v>
       </c>
       <c r="J6">
-        <v>1.023466957543746</v>
+        <v>1.015673635559107</v>
       </c>
       <c r="K6">
-        <v>1.026176735379431</v>
+        <v>1.024369110521478</v>
       </c>
       <c r="L6">
-        <v>1.022593063078271</v>
+        <v>1.012894258711174</v>
       </c>
       <c r="N6">
-        <v>1.024920398016759</v>
+        <v>1.017116008620995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018690735148235</v>
+        <v>0.9954288932363974</v>
       </c>
       <c r="D7">
-        <v>1.023527375057366</v>
+        <v>1.013789813968371</v>
       </c>
       <c r="E7">
-        <v>1.019895500689426</v>
+        <v>1.002071369931785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026844012706388</v>
+        <v>1.042677939071388</v>
       </c>
       <c r="J7">
-        <v>1.023304793841475</v>
+        <v>1.014944121800652</v>
       </c>
       <c r="K7">
-        <v>1.02604259601548</v>
+        <v>1.02372166237796</v>
       </c>
       <c r="L7">
-        <v>1.022420182880116</v>
+        <v>1.012141866381743</v>
       </c>
       <c r="N7">
-        <v>1.024758004023431</v>
+        <v>1.016385458869326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017533327658648</v>
+        <v>0.9899167427296417</v>
       </c>
       <c r="D8">
-        <v>1.022710242536151</v>
+        <v>1.009892461062901</v>
       </c>
       <c r="E8">
-        <v>1.018916970789794</v>
+        <v>0.9977170359312575</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026691911940271</v>
+        <v>1.041369018688081</v>
       </c>
       <c r="J8">
-        <v>1.022625759293657</v>
+        <v>1.011821537668091</v>
       </c>
       <c r="K8">
-        <v>1.025479421066646</v>
+        <v>1.02094007948099</v>
       </c>
       <c r="L8">
-        <v>1.02169709463668</v>
+        <v>1.008928020478824</v>
       </c>
       <c r="N8">
-        <v>1.024078005168669</v>
+        <v>1.013258440309132</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01549396967268</v>
+        <v>0.9797371075872958</v>
       </c>
       <c r="D9">
-        <v>1.021266322367195</v>
+        <v>1.002690394354371</v>
       </c>
       <c r="E9">
-        <v>1.017196042410193</v>
+        <v>0.9897268016483403</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026408185920489</v>
+        <v>1.038825373899396</v>
       </c>
       <c r="J9">
-        <v>1.021424709145123</v>
+        <v>1.006026266694769</v>
       </c>
       <c r="K9">
-        <v>1.024477724478011</v>
+        <v>1.015739972077268</v>
       </c>
       <c r="L9">
-        <v>1.020421206504582</v>
+        <v>1.002988782742056</v>
       </c>
       <c r="N9">
-        <v>1.02287524939116</v>
+        <v>1.007454939386301</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014134569319631</v>
+        <v>0.9726047675544278</v>
       </c>
       <c r="D10">
-        <v>1.020301105914231</v>
+        <v>0.9976457512393417</v>
       </c>
       <c r="E10">
-        <v>1.016051116015023</v>
+        <v>0.9841662446135102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026208530526977</v>
+        <v>1.036961752182556</v>
       </c>
       <c r="J10">
-        <v>1.020621053323673</v>
+        <v>1.001949106148605</v>
       </c>
       <c r="K10">
-        <v>1.02380374874295</v>
+        <v>1.012057642874018</v>
       </c>
       <c r="L10">
-        <v>1.019569537242814</v>
+        <v>0.9988273909156524</v>
       </c>
       <c r="N10">
-        <v>1.022070452286264</v>
+        <v>1.003371988804505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013545990226507</v>
+        <v>0.9694265299617909</v>
       </c>
       <c r="D11">
-        <v>1.01988256104529</v>
+        <v>0.995399225544174</v>
       </c>
       <c r="E11">
-        <v>1.015555929771821</v>
+        <v>0.9816981173737217</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026119597194223</v>
+        <v>1.03611292455602</v>
       </c>
       <c r="J11">
-        <v>1.020272375471675</v>
+        <v>1.000128930619816</v>
       </c>
       <c r="K11">
-        <v>1.02351046138395</v>
+        <v>1.010408430438839</v>
       </c>
       <c r="L11">
-        <v>1.01920051518807</v>
+        <v>0.996973635508422</v>
       </c>
       <c r="N11">
-        <v>1.021721279271721</v>
+        <v>1.001549228417687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013327374485891</v>
+        <v>0.9682317679477322</v>
       </c>
       <c r="D12">
-        <v>1.019727006468786</v>
+        <v>0.9945550195918402</v>
       </c>
       <c r="E12">
-        <v>1.015372083443577</v>
+        <v>0.9807718257600128</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026086191479045</v>
+        <v>1.035791153356268</v>
       </c>
       <c r="J12">
-        <v>1.020142758565951</v>
+        <v>0.999444240772792</v>
       </c>
       <c r="K12">
-        <v>1.023401304661507</v>
+        <v>1.009787285635538</v>
       </c>
       <c r="L12">
-        <v>1.019063408591491</v>
+        <v>0.9962769174650642</v>
       </c>
       <c r="N12">
-        <v>1.021591478295125</v>
+        <v>1.000863566232546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013374267889685</v>
+        <v>0.9684887041685891</v>
       </c>
       <c r="D13">
-        <v>1.019760377425018</v>
+        <v>0.994736552508292</v>
       </c>
       <c r="E13">
-        <v>1.01541151510243</v>
+        <v>0.9809709567656296</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026093373934574</v>
+        <v>1.035860470726776</v>
       </c>
       <c r="J13">
-        <v>1.020170566448464</v>
+        <v>0.9995915042883721</v>
       </c>
       <c r="K13">
-        <v>1.023424728935804</v>
+        <v>1.009920915928479</v>
       </c>
       <c r="L13">
-        <v>1.019092820002985</v>
+        <v>0.9964267407629516</v>
       </c>
       <c r="N13">
-        <v>1.02161932566802</v>
+        <v>1.00101103887921</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013527919195985</v>
+        <v>0.9693280650390882</v>
       </c>
       <c r="D14">
-        <v>1.019869704648348</v>
+        <v>0.9953296444871775</v>
       </c>
       <c r="E14">
-        <v>1.015540731174885</v>
+        <v>0.9816217467134533</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026116843449401</v>
+        <v>1.036086460152091</v>
       </c>
       <c r="J14">
-        <v>1.020261663380519</v>
+        <v>1.00007251153084</v>
       </c>
       <c r="K14">
-        <v>1.023501442869027</v>
+        <v>1.010357262898453</v>
       </c>
       <c r="L14">
-        <v>1.019189182628572</v>
+        <v>0.9969162130270461</v>
       </c>
       <c r="N14">
-        <v>1.021710551968168</v>
+        <v>1.001492729207135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013622590030851</v>
+        <v>0.9698433159423624</v>
       </c>
       <c r="D15">
-        <v>1.019937053099774</v>
+        <v>0.9956937639212049</v>
       </c>
       <c r="E15">
-        <v>1.015620357155494</v>
+        <v>0.9820214445414988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026131254535265</v>
+        <v>1.036224835321242</v>
       </c>
       <c r="J15">
-        <v>1.020317777669422</v>
+        <v>1.000367725417115</v>
       </c>
       <c r="K15">
-        <v>1.0235486801745</v>
+        <v>1.010624966952612</v>
       </c>
       <c r="L15">
-        <v>1.019248550171735</v>
+        <v>0.997216701765049</v>
       </c>
       <c r="N15">
-        <v>1.021766745945798</v>
+        <v>1.001788362330989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014173632535974</v>
+        <v>0.972813742692572</v>
       </c>
       <c r="D16">
-        <v>1.020328870870377</v>
+        <v>0.9977935019223355</v>
       </c>
       <c r="E16">
-        <v>1.016083992133628</v>
+        <v>0.9843287364797346</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026214380536402</v>
+        <v>1.037017188167568</v>
       </c>
       <c r="J16">
-        <v>1.020644179496197</v>
+        <v>1.002068720766594</v>
       </c>
       <c r="K16">
-        <v>1.023823182792292</v>
+        <v>1.012165914718747</v>
       </c>
       <c r="L16">
-        <v>1.019594022993102</v>
+        <v>0.9989492959206618</v>
       </c>
       <c r="N16">
-        <v>1.022093611300605</v>
+        <v>1.003491773288972</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014519301234118</v>
+        <v>0.9746524557230029</v>
       </c>
       <c r="D17">
-        <v>1.020574488456754</v>
+        <v>0.9990936904301683</v>
       </c>
       <c r="E17">
-        <v>1.016374973023818</v>
+        <v>0.9857595689891309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026265859595559</v>
+        <v>1.037502871941876</v>
       </c>
       <c r="J17">
-        <v>1.020848738950854</v>
+        <v>1.00312080056547</v>
       </c>
       <c r="K17">
-        <v>1.023994983381915</v>
+        <v>1.013117629218795</v>
       </c>
       <c r="L17">
-        <v>1.019810664606907</v>
+        <v>1.00002197823711</v>
       </c>
       <c r="N17">
-        <v>1.022298461253151</v>
+        <v>1.004545347161837</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014720928704195</v>
+        <v>0.9757163242027752</v>
       </c>
       <c r="D18">
-        <v>1.020717695054238</v>
+        <v>0.9998460995457772</v>
       </c>
       <c r="E18">
-        <v>1.016544752573334</v>
+        <v>0.9865883564910214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026295646999817</v>
+        <v>1.037782136929913</v>
       </c>
       <c r="J18">
-        <v>1.020967988407267</v>
+        <v>1.00372920589382</v>
       </c>
       <c r="K18">
-        <v>1.024095051630443</v>
+        <v>1.013667490040879</v>
       </c>
       <c r="L18">
-        <v>1.019937004404745</v>
+        <v>1.000642679036119</v>
       </c>
       <c r="N18">
-        <v>1.022417880057471</v>
+        <v>1.005154616495538</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014789679233066</v>
+        <v>0.9760776344783259</v>
       </c>
       <c r="D19">
-        <v>1.020766514914993</v>
+        <v>1.000101651119937</v>
       </c>
       <c r="E19">
-        <v>1.016602652346913</v>
+        <v>0.9868699822062467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026305763092007</v>
+        <v>1.03787668169037</v>
       </c>
       <c r="J19">
-        <v>1.021008638055712</v>
+        <v>1.003935775928121</v>
       </c>
       <c r="K19">
-        <v>1.024129148508595</v>
+        <v>1.013854096154314</v>
       </c>
       <c r="L19">
-        <v>1.019980078972053</v>
+        <v>1.000853488429394</v>
       </c>
       <c r="N19">
-        <v>1.02245858743308</v>
+        <v>1.005361479882982</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014482213752447</v>
+        <v>0.9744560760357328</v>
       </c>
       <c r="D20">
-        <v>1.020548141999344</v>
+        <v>0.9989548127515291</v>
       </c>
       <c r="E20">
-        <v>1.016343747794682</v>
+        <v>0.9856066565431173</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026260361141917</v>
+        <v>1.037451180435019</v>
       </c>
       <c r="J20">
-        <v>1.020826798538825</v>
+        <v>1.003008468518471</v>
       </c>
       <c r="K20">
-        <v>1.023976565289139</v>
+        <v>1.013016065447948</v>
       </c>
       <c r="L20">
-        <v>1.019787423443144</v>
+        <v>0.9999074068708209</v>
       </c>
       <c r="N20">
-        <v>1.022276489683221</v>
+        <v>1.004432855590447</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013482672465072</v>
+        <v>0.9690812928321705</v>
       </c>
       <c r="D21">
-        <v>1.019837512931754</v>
+        <v>0.9951552661321432</v>
       </c>
       <c r="E21">
-        <v>1.015502677823254</v>
+        <v>0.9814303718312331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026109942522063</v>
+        <v>1.036020092328196</v>
       </c>
       <c r="J21">
-        <v>1.02023484042264</v>
+        <v>0.9999311072813569</v>
       </c>
       <c r="K21">
-        <v>1.023478858500233</v>
+        <v>1.010229008482047</v>
       </c>
       <c r="L21">
-        <v>1.019160807203785</v>
+        <v>0.9967723036718722</v>
       </c>
       <c r="N21">
-        <v>1.021683690918612</v>
+        <v>1.001351124147398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012854272346968</v>
+        <v>0.9656192698799133</v>
       </c>
       <c r="D22">
-        <v>1.01939020176197</v>
+        <v>0.9927097297883386</v>
       </c>
       <c r="E22">
-        <v>1.01497437303826</v>
+        <v>0.9787492557651882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026013216996972</v>
+        <v>1.035082722751727</v>
       </c>
       <c r="J22">
-        <v>1.01986206082751</v>
+        <v>0.9979463136002014</v>
       </c>
       <c r="K22">
-        <v>1.023164677150981</v>
+        <v>1.008427005098489</v>
       </c>
       <c r="L22">
-        <v>1.018766624640126</v>
+        <v>0.9947537850030803</v>
       </c>
       <c r="N22">
-        <v>1.021310381933699</v>
+        <v>0.9993635118315558</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013187393892253</v>
+        <v>0.9674626444529254</v>
       </c>
       <c r="D23">
-        <v>1.019627377687804</v>
+        <v>0.9940116639964669</v>
       </c>
       <c r="E23">
-        <v>1.015254388598159</v>
+        <v>0.9801759677730485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02606469666741</v>
+        <v>1.035583269485344</v>
       </c>
       <c r="J23">
-        <v>1.020059734071737</v>
+        <v>0.9990033543908294</v>
       </c>
       <c r="K23">
-        <v>1.023331348992459</v>
+        <v>1.009387105423303</v>
       </c>
       <c r="L23">
-        <v>1.018975607209363</v>
+        <v>0.9958284558355798</v>
       </c>
       <c r="N23">
-        <v>1.021508335896606</v>
+        <v>1.000422053741351</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014498971974349</v>
+        <v>0.9745448381546739</v>
       </c>
       <c r="D24">
-        <v>1.020560047008715</v>
+        <v>0.9990175840127505</v>
       </c>
       <c r="E24">
-        <v>1.01635785696089</v>
+        <v>0.9856757689648179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026262846396402</v>
+        <v>1.037474550030115</v>
       </c>
       <c r="J24">
-        <v>1.02083671267253</v>
+        <v>1.003059242747829</v>
       </c>
       <c r="K24">
-        <v>1.023984888065559</v>
+        <v>1.013061973969544</v>
       </c>
       <c r="L24">
-        <v>1.019797925197649</v>
+        <v>0.9999591920927422</v>
       </c>
       <c r="N24">
-        <v>1.022286417896133</v>
+        <v>1.004483701925034</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016021167902524</v>
+        <v>0.9824272652019229</v>
       </c>
       <c r="D25">
-        <v>1.021640076804447</v>
+        <v>1.004593758496335</v>
       </c>
       <c r="E25">
-        <v>1.017640534809344</v>
+        <v>0.9918320960939351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026483391380355</v>
+        <v>1.039511902071787</v>
       </c>
       <c r="J25">
-        <v>1.021735735667254</v>
+        <v>1.007560847740973</v>
       </c>
       <c r="K25">
-        <v>1.024737781916939</v>
+        <v>1.017121178394299</v>
       </c>
       <c r="L25">
-        <v>1.02075124951989</v>
+        <v>1.004558545533154</v>
       </c>
       <c r="N25">
-        <v>1.023186717606628</v>
+        <v>1.00899169971361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9884671434633586</v>
+        <v>1.02101140294046</v>
       </c>
       <c r="D2">
-        <v>1.008867063512054</v>
+        <v>1.040414043548323</v>
       </c>
       <c r="E2">
-        <v>0.9965752217565825</v>
+        <v>1.02445725074895</v>
+      </c>
+      <c r="F2">
+        <v>1.045946875771578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041016242298575</v>
+        <v>1.058304822964051</v>
       </c>
       <c r="J2">
-        <v>1.010998358408475</v>
+        <v>1.042581327752699</v>
       </c>
       <c r="K2">
-        <v>1.020204232950172</v>
+        <v>1.051337658010705</v>
       </c>
       <c r="L2">
-        <v>1.008082476288721</v>
+        <v>1.035586056283331</v>
+      </c>
+      <c r="M2">
+        <v>1.05680116432541</v>
       </c>
       <c r="N2">
-        <v>1.012434092040547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017650874364571</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053526586600609</v>
+      </c>
+      <c r="Q2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R2">
+        <v>1.047370400932979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9927200541737131</v>
+        <v>1.02494945156065</v>
       </c>
       <c r="D3">
-        <v>1.011874952167614</v>
+        <v>1.043075145889054</v>
       </c>
       <c r="E3">
-        <v>0.9999290068821886</v>
+        <v>1.027594425258818</v>
+      </c>
+      <c r="F3">
+        <v>1.048598690483117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04204136160729</v>
+        <v>1.059501953753805</v>
       </c>
       <c r="J3">
-        <v>1.013411164618172</v>
+        <v>1.044782328687154</v>
       </c>
       <c r="K3">
-        <v>1.022358112426017</v>
+        <v>1.053185013279414</v>
       </c>
       <c r="L3">
-        <v>1.010562796159074</v>
+        <v>1.037885996907215</v>
+      </c>
+      <c r="M3">
+        <v>1.058645327613579</v>
       </c>
       <c r="N3">
-        <v>1.014850324711815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018422232128825</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054986091024709</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048673978557985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9954138883328527</v>
+        <v>1.027452405406451</v>
       </c>
       <c r="D4">
-        <v>1.013779209808271</v>
+        <v>1.04477068015908</v>
       </c>
       <c r="E4">
-        <v>1.002059489306947</v>
+        <v>1.029593778802925</v>
+      </c>
+      <c r="F4">
+        <v>1.050291298621241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042674450072728</v>
+        <v>1.060254270620835</v>
       </c>
       <c r="J4">
-        <v>1.014935639322814</v>
+        <v>1.046179022678987</v>
       </c>
       <c r="K4">
-        <v>1.023714128491215</v>
+        <v>1.054357198689403</v>
       </c>
       <c r="L4">
-        <v>1.012133121497727</v>
+        <v>1.039347685853358</v>
+      </c>
+      <c r="M4">
+        <v>1.059818399497632</v>
       </c>
       <c r="N4">
-        <v>1.016376964345397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018911596130736</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055914480025022</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049503679157606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996532926497143</v>
+        <v>1.028498438387815</v>
       </c>
       <c r="D5">
-        <v>1.014569954547133</v>
+        <v>1.045482227616188</v>
       </c>
       <c r="E5">
-        <v>1.002945943806954</v>
+        <v>1.030431313474077</v>
+      </c>
+      <c r="F5">
+        <v>1.051000934694359</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042933480105832</v>
+        <v>1.060568258913341</v>
       </c>
       <c r="J5">
-        <v>1.015567961581144</v>
+        <v>1.046763964574908</v>
       </c>
       <c r="K5">
-        <v>1.024275384168045</v>
+        <v>1.054849410888268</v>
       </c>
       <c r="L5">
-        <v>1.012785232233329</v>
+        <v>1.039960073537791</v>
+      </c>
+      <c r="M5">
+        <v>1.060310289224719</v>
       </c>
       <c r="N5">
-        <v>1.017010184573863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019117419101338</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05630376956741</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049858782792872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9967200420572995</v>
+        <v>1.02867868895927</v>
       </c>
       <c r="D6">
-        <v>1.014702156442977</v>
+        <v>1.045607300954492</v>
       </c>
       <c r="E6">
-        <v>1.003094252079037</v>
+        <v>1.03057655417346</v>
+      </c>
+      <c r="F6">
+        <v>1.051124021905291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042976558136885</v>
+        <v>1.060624273653539</v>
       </c>
       <c r="J6">
-        <v>1.015673635559107</v>
+        <v>1.046866911192412</v>
       </c>
       <c r="K6">
-        <v>1.024369110521478</v>
+        <v>1.054937636576479</v>
       </c>
       <c r="L6">
-        <v>1.012894258711174</v>
+        <v>1.040067510028618</v>
+      </c>
+      <c r="M6">
+        <v>1.060396812336003</v>
       </c>
       <c r="N6">
-        <v>1.017116008620995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019154743591125</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056372245346506</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049929793842327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9954288932363974</v>
+        <v>1.027480521239076</v>
       </c>
       <c r="D7">
-        <v>1.013789813968371</v>
+        <v>1.044796239642432</v>
       </c>
       <c r="E7">
-        <v>1.002071369931785</v>
+        <v>1.029618582537206</v>
+      </c>
+      <c r="F7">
+        <v>1.050312242264096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042677939071388</v>
+        <v>1.060268175253601</v>
       </c>
       <c r="J7">
-        <v>1.014944121800652</v>
+        <v>1.046200626418597</v>
       </c>
       <c r="K7">
-        <v>1.02372166237796</v>
+        <v>1.054379650994796</v>
       </c>
       <c r="L7">
-        <v>1.012141866381743</v>
+        <v>1.039369325050044</v>
+      </c>
+      <c r="M7">
+        <v>1.059836308576004</v>
       </c>
       <c r="N7">
-        <v>1.016385458869326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018922206307042</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055928653564852</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049539405505161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899167427296417</v>
+        <v>1.022369680911601</v>
       </c>
       <c r="D8">
-        <v>1.009892461062901</v>
+        <v>1.04133899041347</v>
       </c>
       <c r="E8">
-        <v>0.9977170359312575</v>
+        <v>1.025541191590901</v>
+      </c>
+      <c r="F8">
+        <v>1.046862318560719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041369018688081</v>
+        <v>1.058726217387907</v>
       </c>
       <c r="J8">
-        <v>1.011821537668091</v>
+        <v>1.043348304094919</v>
       </c>
       <c r="K8">
-        <v>1.02094007948099</v>
+        <v>1.051986666503708</v>
       </c>
       <c r="L8">
-        <v>1.008928020478824</v>
+        <v>1.036385957971947</v>
+      </c>
+      <c r="M8">
+        <v>1.057442829790372</v>
       </c>
       <c r="N8">
-        <v>1.013258440309132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017923657205054</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054034412658811</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047851923855169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9797371075872958</v>
+        <v>1.012978889636795</v>
       </c>
       <c r="D9">
-        <v>1.002690394354371</v>
+        <v>1.035011300059134</v>
       </c>
       <c r="E9">
-        <v>0.9897268016483403</v>
+        <v>1.0180899326616</v>
+      </c>
+      <c r="F9">
+        <v>1.040579312699369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038825373899396</v>
+        <v>1.055818022050813</v>
       </c>
       <c r="J9">
-        <v>1.006026266694769</v>
+        <v>1.038081510016957</v>
       </c>
       <c r="K9">
-        <v>1.015739972077268</v>
+        <v>1.047560780645479</v>
       </c>
       <c r="L9">
-        <v>1.002988782742056</v>
+        <v>1.030896176333189</v>
+      </c>
+      <c r="M9">
+        <v>1.053046623021335</v>
       </c>
       <c r="N9">
-        <v>1.007454939386301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016073953050578</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050555165481994</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04471945526174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726047675544278</v>
+        <v>1.006521194567539</v>
       </c>
       <c r="D10">
-        <v>0.9976457512393417</v>
+        <v>1.030715596068217</v>
       </c>
       <c r="E10">
-        <v>0.9841662446135102</v>
+        <v>1.013010805957623</v>
+      </c>
+      <c r="F10">
+        <v>1.036391426523044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036961752182556</v>
+        <v>1.053804031278731</v>
       </c>
       <c r="J10">
-        <v>1.001949106148605</v>
+        <v>1.034478448420175</v>
       </c>
       <c r="K10">
-        <v>1.012057642874018</v>
+        <v>1.044551566245219</v>
       </c>
       <c r="L10">
-        <v>0.9988273909156524</v>
+        <v>1.027149053782714</v>
+      </c>
+      <c r="M10">
+        <v>1.050133304364546</v>
       </c>
       <c r="N10">
-        <v>1.003371988804505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014823918474698</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.048300329677799</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042608432904425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9694265299617909</v>
+        <v>1.004180484564787</v>
       </c>
       <c r="D11">
-        <v>0.995399225544174</v>
+        <v>1.029386999394053</v>
       </c>
       <c r="E11">
-        <v>0.9816981173737217</v>
+        <v>1.011275371676482</v>
+      </c>
+      <c r="F11">
+        <v>1.035597935804709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03611292455602</v>
+        <v>1.053277134612661</v>
       </c>
       <c r="J11">
-        <v>1.000128930619816</v>
+        <v>1.033380378726968</v>
       </c>
       <c r="K11">
-        <v>1.010408430438839</v>
+        <v>1.043775213159567</v>
       </c>
       <c r="L11">
-        <v>0.996973635508422</v>
+        <v>1.025987738191565</v>
+      </c>
+      <c r="M11">
+        <v>1.049878365212096</v>
       </c>
       <c r="N11">
-        <v>1.001549228417687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014567573578865</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.048529782064356</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042092058190791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9682317679477322</v>
+        <v>1.00346598713109</v>
       </c>
       <c r="D12">
-        <v>0.9945550195918402</v>
+        <v>1.029066470314011</v>
       </c>
       <c r="E12">
-        <v>0.9807718257600128</v>
+        <v>1.010788210765114</v>
+      </c>
+      <c r="F12">
+        <v>1.035659771961776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035791153356268</v>
+        <v>1.053195291643764</v>
       </c>
       <c r="J12">
-        <v>0.999444240772792</v>
+        <v>1.033124381080637</v>
       </c>
       <c r="K12">
-        <v>1.009787285635538</v>
+        <v>1.043657214091571</v>
       </c>
       <c r="L12">
-        <v>0.9962769174650642</v>
+        <v>1.025711603745782</v>
+      </c>
+      <c r="M12">
+        <v>1.050134255753228</v>
       </c>
       <c r="N12">
-        <v>1.000863566232546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014574246122013</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049055134952594</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042008630507902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9684887041685891</v>
+        <v>1.003976577112734</v>
       </c>
       <c r="D13">
-        <v>0.994736552508292</v>
+        <v>1.029523956007954</v>
       </c>
       <c r="E13">
-        <v>0.9809709567656296</v>
+        <v>1.011246778659694</v>
+      </c>
+      <c r="F13">
+        <v>1.03641359590367</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035860470726776</v>
+        <v>1.053469746316258</v>
       </c>
       <c r="J13">
-        <v>0.9995915042883721</v>
+        <v>1.03352158017134</v>
       </c>
       <c r="K13">
-        <v>1.009920915928479</v>
+        <v>1.04406435923107</v>
       </c>
       <c r="L13">
-        <v>0.9964267407629516</v>
+        <v>1.026118312865057</v>
+      </c>
+      <c r="M13">
+        <v>1.050833102008675</v>
       </c>
       <c r="N13">
-        <v>1.00101103887921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014795497211048</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049881756344862</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042294021572118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9693280650390882</v>
+        <v>1.004887421043198</v>
       </c>
       <c r="D14">
-        <v>0.9953296444871775</v>
+        <v>1.030195313761864</v>
       </c>
       <c r="E14">
-        <v>0.9816217467134533</v>
+        <v>1.011994573133892</v>
+      </c>
+      <c r="F14">
+        <v>1.037252389619401</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036086460152091</v>
+        <v>1.053821826819576</v>
       </c>
       <c r="J14">
-        <v>1.00007251153084</v>
+        <v>1.034093647284241</v>
       </c>
       <c r="K14">
-        <v>1.010357262898453</v>
+        <v>1.044585657636355</v>
       </c>
       <c r="L14">
-        <v>0.9969162130270461</v>
+        <v>1.026710456734214</v>
+      </c>
+      <c r="M14">
+        <v>1.051520483206187</v>
       </c>
       <c r="N14">
-        <v>1.001492729207135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01504672796555</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050597001191674</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042664000780131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9698433159423624</v>
+        <v>1.005384604449072</v>
       </c>
       <c r="D15">
-        <v>0.9956937639212049</v>
+        <v>1.030540344146631</v>
       </c>
       <c r="E15">
-        <v>0.9820214445414988</v>
+        <v>1.012391351468499</v>
+      </c>
+      <c r="F15">
+        <v>1.037627371808771</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036224835321242</v>
+        <v>1.053993147763061</v>
       </c>
       <c r="J15">
-        <v>1.000367725417115</v>
+        <v>1.034385336393194</v>
       </c>
       <c r="K15">
-        <v>1.010624966952612</v>
+        <v>1.044839554524674</v>
       </c>
       <c r="L15">
-        <v>0.997216701765049</v>
+        <v>1.027012657203702</v>
+      </c>
+      <c r="M15">
+        <v>1.051804757328607</v>
       </c>
       <c r="N15">
-        <v>1.001788362330989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015159622691573</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.05085894316808</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042849323634374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.972813742692572</v>
+        <v>1.008024550400628</v>
       </c>
       <c r="D16">
-        <v>0.9977935019223355</v>
+        <v>1.032281276800151</v>
       </c>
       <c r="E16">
-        <v>0.9843287364797346</v>
+        <v>1.014450575425223</v>
+      </c>
+      <c r="F16">
+        <v>1.039295875645249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037017188167568</v>
+        <v>1.054814228524658</v>
       </c>
       <c r="J16">
-        <v>1.002068720766594</v>
+        <v>1.035847589644076</v>
       </c>
       <c r="K16">
-        <v>1.012165914718747</v>
+        <v>1.046056117866008</v>
       </c>
       <c r="L16">
-        <v>0.9989492959206618</v>
+        <v>1.028527805269451</v>
+      </c>
+      <c r="M16">
+        <v>1.052955411187971</v>
       </c>
       <c r="N16">
-        <v>1.003491773288972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015651170497381</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051730012451122</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043712593801455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746524557230029</v>
+        <v>1.009576250939295</v>
       </c>
       <c r="D17">
-        <v>0.9990936904301683</v>
+        <v>1.033268074790258</v>
       </c>
       <c r="E17">
-        <v>0.9857595689891309</v>
+        <v>1.015643460659641</v>
+      </c>
+      <c r="F17">
+        <v>1.040132758870623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037502871941876</v>
+        <v>1.055258349678273</v>
       </c>
       <c r="J17">
-        <v>1.00312080056547</v>
+        <v>1.036671337598287</v>
       </c>
       <c r="K17">
-        <v>1.013117629218795</v>
+        <v>1.046716898007479</v>
       </c>
       <c r="L17">
-        <v>1.00002197823711</v>
+        <v>1.029382652430509</v>
+      </c>
+      <c r="M17">
+        <v>1.053471895899956</v>
       </c>
       <c r="N17">
-        <v>1.004545347161837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015897429522947</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052010309449417</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044182340588274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757163242027752</v>
+        <v>1.010314515965712</v>
       </c>
       <c r="D18">
-        <v>0.9998460995457772</v>
+        <v>1.033662469701987</v>
       </c>
       <c r="E18">
-        <v>0.9865883564910214</v>
+        <v>1.016176479444224</v>
+      </c>
+      <c r="F18">
+        <v>1.040269341561096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037782136929913</v>
+        <v>1.05539771291874</v>
       </c>
       <c r="J18">
-        <v>1.00372920589382</v>
+        <v>1.036993437863639</v>
       </c>
       <c r="K18">
-        <v>1.013667490040879</v>
+        <v>1.046924386346767</v>
       </c>
       <c r="L18">
-        <v>1.000642679036119</v>
+        <v>1.029721708004938</v>
+      </c>
+      <c r="M18">
+        <v>1.053427381993306</v>
       </c>
       <c r="N18">
-        <v>1.005154616495538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01593987581002</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051739695773446</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044317524907409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9760776344783259</v>
+        <v>1.010316074173448</v>
       </c>
       <c r="D19">
-        <v>1.000101651119937</v>
+        <v>1.03352221562252</v>
       </c>
       <c r="E19">
-        <v>0.9868699822062467</v>
+        <v>1.016113596756446</v>
+      </c>
+      <c r="F19">
+        <v>1.039764617442152</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03787668169037</v>
+        <v>1.055262674829908</v>
       </c>
       <c r="J19">
-        <v>1.003935775928121</v>
+        <v>1.036862554977267</v>
       </c>
       <c r="K19">
-        <v>1.013854096154314</v>
+        <v>1.04672477591533</v>
       </c>
       <c r="L19">
-        <v>1.000853488429394</v>
+        <v>1.029596782901625</v>
+      </c>
+      <c r="M19">
+        <v>1.052869475738607</v>
       </c>
       <c r="N19">
-        <v>1.005361479882982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015806184754474</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.05097654707335</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044182724765733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9744560760357328</v>
+        <v>1.008234022385803</v>
       </c>
       <c r="D20">
-        <v>0.9989548127515291</v>
+        <v>1.031870510828932</v>
       </c>
       <c r="E20">
-        <v>0.9856066565431173</v>
+        <v>1.0143631220259</v>
+      </c>
+      <c r="F20">
+        <v>1.03750864974071</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037451180435019</v>
+        <v>1.054355822023535</v>
       </c>
       <c r="J20">
-        <v>1.003008468518471</v>
+        <v>1.035451185137312</v>
       </c>
       <c r="K20">
-        <v>1.013016065447948</v>
+        <v>1.045375185974804</v>
       </c>
       <c r="L20">
-        <v>0.9999074068708209</v>
+        <v>1.028158029022384</v>
+      </c>
+      <c r="M20">
+        <v>1.050922531208986</v>
       </c>
       <c r="N20">
-        <v>1.004432855590447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015171164408751</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048914486586288</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043232416525514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690812928321705</v>
+        <v>1.003279660495664</v>
       </c>
       <c r="D21">
-        <v>0.9951552661321432</v>
+        <v>1.02853838338104</v>
       </c>
       <c r="E21">
-        <v>0.9814303718312331</v>
+        <v>1.010459083920934</v>
+      </c>
+      <c r="F21">
+        <v>1.034170858823372</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036020092328196</v>
+        <v>1.052752667820738</v>
       </c>
       <c r="J21">
-        <v>0.9999311072813569</v>
+        <v>1.032640897557108</v>
       </c>
       <c r="K21">
-        <v>1.010229008482047</v>
+        <v>1.042998533680759</v>
       </c>
       <c r="L21">
-        <v>0.9967723036718722</v>
+        <v>1.025244978539336</v>
+      </c>
+      <c r="M21">
+        <v>1.048532537315019</v>
       </c>
       <c r="N21">
-        <v>1.001351124147398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01417229500992</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046982609671369</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041555267739138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9656192698799133</v>
+        <v>1.000117866607764</v>
       </c>
       <c r="D22">
-        <v>0.9927097297883386</v>
+        <v>1.026425731812091</v>
       </c>
       <c r="E22">
-        <v>0.9787492557651882</v>
+        <v>1.007978019681836</v>
+      </c>
+      <c r="F22">
+        <v>1.032094246617699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035082722751727</v>
+        <v>1.051729297929714</v>
       </c>
       <c r="J22">
-        <v>0.9979463136002014</v>
+        <v>1.030852887122526</v>
       </c>
       <c r="K22">
-        <v>1.008427005098489</v>
+        <v>1.041491258478735</v>
       </c>
       <c r="L22">
-        <v>0.9947537850030803</v>
+        <v>1.023393070061251</v>
+      </c>
+      <c r="M22">
+        <v>1.047055639708868</v>
       </c>
       <c r="N22">
-        <v>0.9993635118315558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013540066106647</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045813753701629</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040476193514736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9674626444529254</v>
+        <v>1.001786205117199</v>
       </c>
       <c r="D23">
-        <v>0.9940116639964669</v>
+        <v>1.027534079753859</v>
       </c>
       <c r="E23">
-        <v>0.9801759677730485</v>
+        <v>1.009283727101515</v>
+      </c>
+      <c r="F23">
+        <v>1.033187315764253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035583269485344</v>
+        <v>1.052265367334535</v>
       </c>
       <c r="J23">
-        <v>0.9990033543908294</v>
+        <v>1.031790967194657</v>
       </c>
       <c r="K23">
-        <v>1.009387105423303</v>
+        <v>1.04227847313037</v>
       </c>
       <c r="L23">
-        <v>0.9958284558355798</v>
+        <v>1.02436488362541</v>
+      </c>
+      <c r="M23">
+        <v>1.047830525143885</v>
       </c>
       <c r="N23">
-        <v>1.000422053741351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013868368616597</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.046427018835562</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041023226483213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9745448381546739</v>
+        <v>1.008243171353444</v>
       </c>
       <c r="D24">
-        <v>0.9990175840127505</v>
+        <v>1.031845942473935</v>
       </c>
       <c r="E24">
-        <v>0.9856757689648179</v>
+        <v>1.01435721537589</v>
+      </c>
+      <c r="F24">
+        <v>1.037441173413501</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037474550030115</v>
+        <v>1.054330638144767</v>
       </c>
       <c r="J24">
-        <v>1.003059242747829</v>
+        <v>1.035427558434262</v>
       </c>
       <c r="K24">
-        <v>1.013061973969544</v>
+        <v>1.04533597253251</v>
       </c>
       <c r="L24">
-        <v>0.9999591920927422</v>
+        <v>1.028136807615385</v>
+      </c>
+      <c r="M24">
+        <v>1.050841205525734</v>
       </c>
       <c r="N24">
-        <v>1.004483701925034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015146661115832</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048809747270925</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043177554097599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9824272652019229</v>
+        <v>1.01547499004275</v>
       </c>
       <c r="D25">
-        <v>1.004593758496335</v>
+        <v>1.036698880742615</v>
       </c>
       <c r="E25">
-        <v>0.9918320960939351</v>
+        <v>1.020069177600815</v>
+      </c>
+      <c r="F25">
+        <v>1.042245034223981</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039511902071787</v>
+        <v>1.056606930066579</v>
       </c>
       <c r="J25">
-        <v>1.007560847740973</v>
+        <v>1.03949255123328</v>
       </c>
       <c r="K25">
-        <v>1.017121178394299</v>
+        <v>1.048753005639373</v>
       </c>
       <c r="L25">
-        <v>1.004558545533154</v>
+        <v>1.032363733730753</v>
+      </c>
+      <c r="M25">
+        <v>1.054221127453506</v>
       </c>
       <c r="N25">
-        <v>1.00899169971361</v>
+        <v>1.016574906928649</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.05148469368135</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045590689545901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02101140294046</v>
+        <v>1.019406380835999</v>
       </c>
       <c r="D2">
-        <v>1.040414043548323</v>
+        <v>1.038169076487257</v>
       </c>
       <c r="E2">
-        <v>1.02445725074895</v>
+        <v>1.023115752946094</v>
       </c>
       <c r="F2">
-        <v>1.045946875771578</v>
+        <v>1.044357210652839</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058304822964051</v>
+        <v>1.057038401446039</v>
       </c>
       <c r="J2">
-        <v>1.042581327752699</v>
+        <v>1.041021748251195</v>
       </c>
       <c r="K2">
-        <v>1.051337658010705</v>
+        <v>1.049121083267614</v>
       </c>
       <c r="L2">
-        <v>1.035586056283331</v>
+        <v>1.034262174606878</v>
       </c>
       <c r="M2">
-        <v>1.05680116432541</v>
+        <v>1.055231323835423</v>
       </c>
       <c r="N2">
-        <v>1.017650874364571</v>
+        <v>1.017805481039833</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053526586600609</v>
+        <v>1.052284184015898</v>
       </c>
       <c r="Q2">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047370400932979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045811801005406</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024931504912022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02494945156065</v>
+        <v>1.023140082750275</v>
       </c>
       <c r="D3">
-        <v>1.043075145889054</v>
+        <v>1.040601341488357</v>
       </c>
       <c r="E3">
-        <v>1.027594425258818</v>
+        <v>1.02606782264636</v>
       </c>
       <c r="F3">
-        <v>1.048598690483117</v>
+        <v>1.046847049226212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059501953753805</v>
+        <v>1.058094565342883</v>
       </c>
       <c r="J3">
-        <v>1.044782328687154</v>
+        <v>1.043019204949098</v>
       </c>
       <c r="K3">
-        <v>1.053185013279414</v>
+        <v>1.05073979645093</v>
       </c>
       <c r="L3">
-        <v>1.037885996907215</v>
+        <v>1.036377681127602</v>
       </c>
       <c r="M3">
-        <v>1.058645327613579</v>
+        <v>1.056913648963766</v>
       </c>
       <c r="N3">
-        <v>1.018422232128825</v>
+        <v>1.018354638349944</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054986091024709</v>
+        <v>1.053615609073289</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048673978557985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046953436922518</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025275091619475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027452405406451</v>
+        <v>1.025514596780301</v>
       </c>
       <c r="D4">
-        <v>1.04477068015908</v>
+        <v>1.042152327279459</v>
       </c>
       <c r="E4">
-        <v>1.029593778802925</v>
+        <v>1.027950786252107</v>
       </c>
       <c r="F4">
-        <v>1.050291298621241</v>
+        <v>1.048437491590235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060254270620835</v>
+        <v>1.058757735909672</v>
       </c>
       <c r="J4">
-        <v>1.046179022678987</v>
+        <v>1.044287412983552</v>
       </c>
       <c r="K4">
-        <v>1.054357198689403</v>
+        <v>1.051767296864184</v>
       </c>
       <c r="L4">
-        <v>1.039347685853358</v>
+        <v>1.037723179331706</v>
       </c>
       <c r="M4">
-        <v>1.059818399497632</v>
+        <v>1.057984459226796</v>
       </c>
       <c r="N4">
-        <v>1.018911596130736</v>
+        <v>1.018703394760635</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055914480025022</v>
+        <v>1.054463068066595</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049503679157606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047680918717964</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025490908450218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028498438387815</v>
+        <v>1.026507043429575</v>
       </c>
       <c r="D5">
-        <v>1.045482227616188</v>
+        <v>1.042803568598233</v>
       </c>
       <c r="E5">
-        <v>1.030431313474077</v>
+        <v>1.028739701629774</v>
       </c>
       <c r="F5">
-        <v>1.051000934694359</v>
+        <v>1.04910453100606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060568258913341</v>
+        <v>1.059034473878563</v>
       </c>
       <c r="J5">
-        <v>1.046763964574908</v>
+        <v>1.044818636969425</v>
       </c>
       <c r="K5">
-        <v>1.054849410888268</v>
+        <v>1.052199090634709</v>
       </c>
       <c r="L5">
-        <v>1.039960073537791</v>
+        <v>1.038286984651656</v>
       </c>
       <c r="M5">
-        <v>1.060310289224719</v>
+        <v>1.058433673507419</v>
       </c>
       <c r="N5">
-        <v>1.019117419101338</v>
+        <v>1.018850119714034</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05630376956741</v>
+        <v>1.054818584251824</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049858782792872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047994016121087</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025581785575499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02867868895927</v>
+        <v>1.026677789769436</v>
       </c>
       <c r="D6">
-        <v>1.045607300954492</v>
+        <v>1.042918135156458</v>
       </c>
       <c r="E6">
-        <v>1.03057655417346</v>
+        <v>1.028876251602658</v>
       </c>
       <c r="F6">
-        <v>1.051124021905291</v>
+        <v>1.049220190807279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060624273653539</v>
+        <v>1.059083956127979</v>
       </c>
       <c r="J6">
-        <v>1.046866911192412</v>
+        <v>1.044912062612736</v>
       </c>
       <c r="K6">
-        <v>1.054937636576479</v>
+        <v>1.052276791507601</v>
       </c>
       <c r="L6">
-        <v>1.040067510028618</v>
+        <v>1.038385739704748</v>
       </c>
       <c r="M6">
-        <v>1.060396812336003</v>
+        <v>1.058512756689917</v>
       </c>
       <c r="N6">
-        <v>1.019154743591125</v>
+        <v>1.018876676437482</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056372245346506</v>
+        <v>1.054881172074216</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049929793842327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048058457037776</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025599000369249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027480521239076</v>
+        <v>1.025549705379704</v>
       </c>
       <c r="D7">
-        <v>1.044796239642432</v>
+        <v>1.042182371005352</v>
       </c>
       <c r="E7">
-        <v>1.029618582537206</v>
+        <v>1.027982037900906</v>
       </c>
       <c r="F7">
-        <v>1.050312242264096</v>
+        <v>1.048461692608976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060268175253601</v>
+        <v>1.058775078506749</v>
       </c>
       <c r="J7">
-        <v>1.046200626418597</v>
+        <v>1.044315822249305</v>
       </c>
       <c r="K7">
-        <v>1.054379650994796</v>
+        <v>1.051794173393297</v>
       </c>
       <c r="L7">
-        <v>1.039369325050044</v>
+        <v>1.037751186517482</v>
       </c>
       <c r="M7">
-        <v>1.059836308576004</v>
+        <v>1.058005583148845</v>
       </c>
       <c r="N7">
-        <v>1.018922206307042</v>
+        <v>1.018739797144828</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055928653564852</v>
+        <v>1.054479785918598</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049539405505161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047721778137005</v>
+      </c>
+      <c r="S7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.025500075300696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022369680911601</v>
+        <v>1.02072116018227</v>
       </c>
       <c r="D8">
-        <v>1.04133899041347</v>
+        <v>1.039034316316213</v>
       </c>
       <c r="E8">
-        <v>1.025541191590901</v>
+        <v>1.02416109748906</v>
       </c>
       <c r="F8">
-        <v>1.046862318560719</v>
+        <v>1.045230655749626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058726217387907</v>
+        <v>1.057425273255826</v>
       </c>
       <c r="J8">
-        <v>1.043348304094919</v>
+        <v>1.041744896964644</v>
       </c>
       <c r="K8">
-        <v>1.051986666503708</v>
+        <v>1.049710280421474</v>
       </c>
       <c r="L8">
-        <v>1.036385957971947</v>
+        <v>1.035023442377266</v>
       </c>
       <c r="M8">
-        <v>1.057442829790372</v>
+        <v>1.055830916582684</v>
       </c>
       <c r="N8">
-        <v>1.017923657205054</v>
+        <v>1.018087770487453</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054034412658811</v>
+        <v>1.052758713729692</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047851923855169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046253306272292</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025063547921942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012978889636795</v>
+        <v>1.011831883564083</v>
       </c>
       <c r="D9">
-        <v>1.035011300059134</v>
+        <v>1.033261328948306</v>
       </c>
       <c r="E9">
-        <v>1.0180899326616</v>
+        <v>1.017164168091436</v>
       </c>
       <c r="F9">
-        <v>1.040579312699369</v>
+        <v>1.039341329140465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055818022050813</v>
+        <v>1.054858563942863</v>
       </c>
       <c r="J9">
-        <v>1.038081510016957</v>
+        <v>1.036973636194287</v>
       </c>
       <c r="K9">
-        <v>1.047560780645479</v>
+        <v>1.045836867461564</v>
       </c>
       <c r="L9">
-        <v>1.030896176333189</v>
+        <v>1.02998477413099</v>
       </c>
       <c r="M9">
-        <v>1.053046623021335</v>
+        <v>1.051826812428098</v>
       </c>
       <c r="N9">
-        <v>1.016073953050578</v>
+        <v>1.0167844195498</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050555165481994</v>
+        <v>1.049589779783682</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04471945526174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04351118495377</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024226587718792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006521194567539</v>
+        <v>1.005760217730236</v>
       </c>
       <c r="D10">
-        <v>1.030715596068217</v>
+        <v>1.029373894901585</v>
       </c>
       <c r="E10">
-        <v>1.013010805957623</v>
+        <v>1.01243436017855</v>
       </c>
       <c r="F10">
-        <v>1.036391426523044</v>
+        <v>1.035444672347519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053804031278731</v>
+        <v>1.053098063106524</v>
       </c>
       <c r="J10">
-        <v>1.034478448420175</v>
+        <v>1.033747145292706</v>
       </c>
       <c r="K10">
-        <v>1.044551566245219</v>
+        <v>1.043232302866775</v>
       </c>
       <c r="L10">
-        <v>1.027149053782714</v>
+        <v>1.026582679968029</v>
       </c>
       <c r="M10">
-        <v>1.050133304364546</v>
+        <v>1.049202152981831</v>
       </c>
       <c r="N10">
-        <v>1.014823918474698</v>
+        <v>1.016027647351792</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048300329677799</v>
+        <v>1.047563438191529</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042608432904425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041687952744856</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023667741361325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004180484564787</v>
+        <v>1.003550672422203</v>
       </c>
       <c r="D11">
-        <v>1.029386999394053</v>
+        <v>1.028176743720427</v>
       </c>
       <c r="E11">
-        <v>1.011275371676482</v>
+        <v>1.010807704666615</v>
       </c>
       <c r="F11">
-        <v>1.035597935804709</v>
+        <v>1.034745802360106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053277134612661</v>
+        <v>1.052654068911443</v>
       </c>
       <c r="J11">
-        <v>1.033380378726968</v>
+        <v>1.032776481663833</v>
       </c>
       <c r="K11">
-        <v>1.043775213159567</v>
+        <v>1.04258615664998</v>
       </c>
       <c r="L11">
-        <v>1.025987738191565</v>
+        <v>1.02552864162042</v>
       </c>
       <c r="M11">
-        <v>1.049878365212096</v>
+        <v>1.049040920609447</v>
       </c>
       <c r="N11">
-        <v>1.014567573578865</v>
+        <v>1.016073591300772</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048529782064356</v>
+        <v>1.047867373909639</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042092058190791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041266856370337</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023612522976605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00346598713109</v>
+        <v>1.002853746584176</v>
       </c>
       <c r="D12">
-        <v>1.029066470314011</v>
+        <v>1.02787585041177</v>
       </c>
       <c r="E12">
-        <v>1.010788210765114</v>
+        <v>1.010327141252613</v>
       </c>
       <c r="F12">
-        <v>1.035659771961776</v>
+        <v>1.034821975943682</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053195291643764</v>
+        <v>1.052584209104345</v>
       </c>
       <c r="J12">
-        <v>1.033124381080637</v>
+        <v>1.032537819866203</v>
       </c>
       <c r="K12">
-        <v>1.043657214091571</v>
+        <v>1.042487794843924</v>
       </c>
       <c r="L12">
-        <v>1.025711603745782</v>
+        <v>1.025259128415034</v>
       </c>
       <c r="M12">
-        <v>1.050134255753228</v>
+        <v>1.049311126175338</v>
       </c>
       <c r="N12">
-        <v>1.014574246122013</v>
+        <v>1.016168877674091</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049055134952594</v>
+        <v>1.048404265669617</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042008630507902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041197313911278</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023648079271836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003976577112734</v>
+        <v>1.003280974444192</v>
       </c>
       <c r="D13">
-        <v>1.029523956007954</v>
+        <v>1.028258002167582</v>
       </c>
       <c r="E13">
-        <v>1.011246778659694</v>
+        <v>1.010700956437135</v>
       </c>
       <c r="F13">
-        <v>1.03641359590367</v>
+        <v>1.035522044980962</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053469746316258</v>
+        <v>1.052809444180048</v>
       </c>
       <c r="J13">
-        <v>1.03352158017134</v>
+        <v>1.032855008040958</v>
       </c>
       <c r="K13">
-        <v>1.04406435923107</v>
+        <v>1.04282084855597</v>
       </c>
       <c r="L13">
-        <v>1.026118312865057</v>
+        <v>1.025582619611996</v>
       </c>
       <c r="M13">
-        <v>1.050833102008675</v>
+        <v>1.049957078385591</v>
       </c>
       <c r="N13">
-        <v>1.014795497211048</v>
+        <v>1.016279741864878</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049881756344862</v>
+        <v>1.049189233373449</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042294021572118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041430073784439</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023763299521655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004887421043198</v>
+        <v>1.004089741393493</v>
       </c>
       <c r="D14">
-        <v>1.030195313761864</v>
+        <v>1.02883540677796</v>
       </c>
       <c r="E14">
-        <v>1.011994573133892</v>
+        <v>1.011350470310686</v>
       </c>
       <c r="F14">
-        <v>1.037252389619401</v>
+        <v>1.036293722774816</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053821826819576</v>
+        <v>1.053100486946342</v>
       </c>
       <c r="J14">
-        <v>1.034093647284241</v>
+        <v>1.033328778974183</v>
       </c>
       <c r="K14">
-        <v>1.044585657636355</v>
+        <v>1.043249558152109</v>
       </c>
       <c r="L14">
-        <v>1.026710456734214</v>
+        <v>1.026078153956831</v>
       </c>
       <c r="M14">
-        <v>1.051520483206187</v>
+        <v>1.050578297062841</v>
       </c>
       <c r="N14">
-        <v>1.01504672796555</v>
+        <v>1.01636616228756</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050597001191674</v>
+        <v>1.049852273889893</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042664000780131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041734724065168</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023880450928377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005384604449072</v>
+        <v>1.004539714427634</v>
       </c>
       <c r="D15">
-        <v>1.030540344146631</v>
+        <v>1.029136370478929</v>
       </c>
       <c r="E15">
-        <v>1.012391351468499</v>
+        <v>1.011703270682589</v>
       </c>
       <c r="F15">
-        <v>1.037627371808771</v>
+        <v>1.036637220901834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053993147763061</v>
+        <v>1.053243285338131</v>
       </c>
       <c r="J15">
-        <v>1.034385336393194</v>
+        <v>1.033574894158391</v>
       </c>
       <c r="K15">
-        <v>1.044839554524674</v>
+        <v>1.043459972717515</v>
       </c>
       <c r="L15">
-        <v>1.027012657203702</v>
+        <v>1.02633708384201</v>
       </c>
       <c r="M15">
-        <v>1.051804757328607</v>
+        <v>1.050831497637775</v>
       </c>
       <c r="N15">
-        <v>1.015159622691573</v>
+        <v>1.016397339293056</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.05085894316808</v>
+        <v>1.050089674584085</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042849323634374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041889873383757</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023930874785913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008024550400628</v>
+        <v>1.006972424107058</v>
       </c>
       <c r="D16">
-        <v>1.032281276800151</v>
+        <v>1.030677511816804</v>
       </c>
       <c r="E16">
-        <v>1.014450575425223</v>
+        <v>1.013576683442743</v>
       </c>
       <c r="F16">
-        <v>1.039295875645249</v>
+        <v>1.038163090576218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054814228524658</v>
+        <v>1.053936262519753</v>
       </c>
       <c r="J16">
-        <v>1.035847589644076</v>
+        <v>1.034836203542022</v>
       </c>
       <c r="K16">
-        <v>1.046056117866008</v>
+        <v>1.044478999390784</v>
       </c>
       <c r="L16">
-        <v>1.028527805269451</v>
+        <v>1.027669087526915</v>
       </c>
       <c r="M16">
-        <v>1.052955411187971</v>
+        <v>1.051841111172894</v>
       </c>
       <c r="N16">
-        <v>1.015651170497381</v>
+        <v>1.016520516023694</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051730012451122</v>
+        <v>1.050849240161088</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043712593801455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042613778794593</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024140653327219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009576250939295</v>
+        <v>1.00842785146761</v>
       </c>
       <c r="D17">
-        <v>1.033268074790258</v>
+        <v>1.031566282087703</v>
       </c>
       <c r="E17">
-        <v>1.015643460659641</v>
+        <v>1.014686361901687</v>
       </c>
       <c r="F17">
-        <v>1.040132758870623</v>
+        <v>1.038930034249253</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055258349678273</v>
+        <v>1.054318578021577</v>
       </c>
       <c r="J17">
-        <v>1.036671337598287</v>
+        <v>1.035565968394274</v>
       </c>
       <c r="K17">
-        <v>1.046716898007479</v>
+        <v>1.045042587000593</v>
       </c>
       <c r="L17">
-        <v>1.029382652430509</v>
+        <v>1.028441694556642</v>
       </c>
       <c r="M17">
-        <v>1.053471895899956</v>
+        <v>1.052288254631043</v>
       </c>
       <c r="N17">
-        <v>1.015897429522947</v>
+        <v>1.016599586590269</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052010309449417</v>
+        <v>1.051074636090506</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044182340588274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043015055288889</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024241415265664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010314515965712</v>
+        <v>1.009148414071969</v>
       </c>
       <c r="D18">
-        <v>1.033662469701987</v>
+        <v>1.031936787232608</v>
       </c>
       <c r="E18">
-        <v>1.016176479444224</v>
+        <v>1.015209657816033</v>
       </c>
       <c r="F18">
-        <v>1.040269341561096</v>
+        <v>1.039049402734826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05539771291874</v>
+        <v>1.054444047161335</v>
       </c>
       <c r="J18">
-        <v>1.036993437863639</v>
+        <v>1.035870205475978</v>
       </c>
       <c r="K18">
-        <v>1.046924386346767</v>
+        <v>1.045226116554325</v>
       </c>
       <c r="L18">
-        <v>1.029721708004938</v>
+        <v>1.028770917629494</v>
       </c>
       <c r="M18">
-        <v>1.053427381993306</v>
+        <v>1.052226496425065</v>
       </c>
       <c r="N18">
-        <v>1.01593987581002</v>
+        <v>1.016598668290092</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051739695773446</v>
+        <v>1.050790196322057</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044317524907409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043132162296685</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02424294430912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010316074173448</v>
+        <v>1.009196842432816</v>
       </c>
       <c r="D19">
-        <v>1.03352221562252</v>
+        <v>1.031836095742076</v>
       </c>
       <c r="E19">
-        <v>1.016113596756446</v>
+        <v>1.015197156967548</v>
       </c>
       <c r="F19">
-        <v>1.039764617442152</v>
+        <v>1.038572468706296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055262674829908</v>
+        <v>1.05433560329041</v>
       </c>
       <c r="J19">
-        <v>1.036862554977267</v>
+        <v>1.035784226825374</v>
       </c>
       <c r="K19">
-        <v>1.04672477591533</v>
+        <v>1.04506530576061</v>
       </c>
       <c r="L19">
-        <v>1.029596782901625</v>
+        <v>1.028695459189255</v>
       </c>
       <c r="M19">
-        <v>1.052869475738607</v>
+        <v>1.051695869759859</v>
       </c>
       <c r="N19">
-        <v>1.015806184754474</v>
+        <v>1.016510230527347</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05097654707335</v>
+        <v>1.050048319685043</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044182724765733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043025420638065</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024156665747267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008234022385803</v>
+        <v>1.007341015409278</v>
       </c>
       <c r="D20">
-        <v>1.031870510828932</v>
+        <v>1.030400104786922</v>
       </c>
       <c r="E20">
-        <v>1.0143631220259</v>
+        <v>1.013665288011325</v>
       </c>
       <c r="F20">
-        <v>1.03750864974071</v>
+        <v>1.036469738024052</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054355822023535</v>
+        <v>1.053567686865372</v>
       </c>
       <c r="J20">
-        <v>1.035451185137312</v>
+        <v>1.034591857049232</v>
       </c>
       <c r="K20">
-        <v>1.045375185974804</v>
+        <v>1.043928668444048</v>
       </c>
       <c r="L20">
-        <v>1.028158029022384</v>
+        <v>1.027472031674186</v>
       </c>
       <c r="M20">
-        <v>1.050922531208986</v>
+        <v>1.049900254382022</v>
       </c>
       <c r="N20">
-        <v>1.015171164408751</v>
+        <v>1.016161887432651</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048914486586288</v>
+        <v>1.048105471050442</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043232416525514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042226067815542</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023821556435205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003279660495664</v>
+        <v>1.002826090988841</v>
       </c>
       <c r="D21">
-        <v>1.02853838338104</v>
+        <v>1.027484162855384</v>
       </c>
       <c r="E21">
-        <v>1.010459083920934</v>
+        <v>1.010167541195705</v>
       </c>
       <c r="F21">
-        <v>1.034170858823372</v>
+        <v>1.033430281233852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052752667820738</v>
+        <v>1.052232676569848</v>
       </c>
       <c r="J21">
-        <v>1.032640897557108</v>
+        <v>1.032206127863749</v>
       </c>
       <c r="K21">
-        <v>1.042998533680759</v>
+        <v>1.041962899484922</v>
       </c>
       <c r="L21">
-        <v>1.025244978539336</v>
+        <v>1.024958813199982</v>
       </c>
       <c r="M21">
-        <v>1.048532537315019</v>
+        <v>1.047804827805152</v>
       </c>
       <c r="N21">
-        <v>1.01417229500992</v>
+        <v>1.015932450229197</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046982609671369</v>
+        <v>1.046406681280075</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041555267739138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040839755356253</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023397154619164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000117866607764</v>
+        <v>0.9999420713262498</v>
       </c>
       <c r="D22">
-        <v>1.026425731812091</v>
+        <v>1.025634614879236</v>
       </c>
       <c r="E22">
-        <v>1.007978019681836</v>
+        <v>1.00794376476816</v>
       </c>
       <c r="F22">
-        <v>1.032094246617699</v>
+        <v>1.031542618603573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051729297929714</v>
+        <v>1.051378208504236</v>
       </c>
       <c r="J22">
-        <v>1.030852887122526</v>
+        <v>1.03068480701291</v>
       </c>
       <c r="K22">
-        <v>1.041491258478735</v>
+        <v>1.040714794139714</v>
       </c>
       <c r="L22">
-        <v>1.023393070061251</v>
+        <v>1.023359479766596</v>
       </c>
       <c r="M22">
-        <v>1.047055639708868</v>
+        <v>1.046514079951816</v>
       </c>
       <c r="N22">
-        <v>1.013540066106647</v>
+        <v>1.015781397257404</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045813753701629</v>
+        <v>1.045385148468754</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040476193514736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039942624387627</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023128470362525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001786205117199</v>
+        <v>1.001449615145286</v>
       </c>
       <c r="D23">
-        <v>1.027534079753859</v>
+        <v>1.026593817341155</v>
       </c>
       <c r="E23">
-        <v>1.009283727101515</v>
+        <v>1.009100138252242</v>
       </c>
       <c r="F23">
-        <v>1.033187315764253</v>
+        <v>1.032528486635177</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052265367334535</v>
+        <v>1.051817812221401</v>
       </c>
       <c r="J23">
-        <v>1.031790967194657</v>
+        <v>1.031468711891834</v>
       </c>
       <c r="K23">
-        <v>1.04227847313037</v>
+        <v>1.041355180466727</v>
       </c>
       <c r="L23">
-        <v>1.02436488362541</v>
+        <v>1.024184763313595</v>
       </c>
       <c r="M23">
-        <v>1.047830525143885</v>
+        <v>1.047183413981936</v>
       </c>
       <c r="N23">
-        <v>1.013868368616597</v>
+        <v>1.015811685087656</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046427018835562</v>
+        <v>1.045914877726456</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041023226483213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040384901264985</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023261913668303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.008243171353444</v>
+        <v>1.007357466483302</v>
       </c>
       <c r="D24">
-        <v>1.031845942473935</v>
+        <v>1.030381213606074</v>
       </c>
       <c r="E24">
-        <v>1.01435721537589</v>
+        <v>1.013667407625227</v>
       </c>
       <c r="F24">
-        <v>1.037441173413501</v>
+        <v>1.036406294426035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054330638144767</v>
+        <v>1.053546482128425</v>
       </c>
       <c r="J24">
-        <v>1.035427558434262</v>
+        <v>1.034575209052563</v>
       </c>
       <c r="K24">
-        <v>1.04533597253251</v>
+        <v>1.043895010822517</v>
       </c>
       <c r="L24">
-        <v>1.028136807615385</v>
+        <v>1.027458685420547</v>
       </c>
       <c r="M24">
-        <v>1.050841205525734</v>
+        <v>1.049822878397083</v>
       </c>
       <c r="N24">
-        <v>1.015146661115832</v>
+        <v>1.016143231498829</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048809747270925</v>
+        <v>1.048003818340209</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043177554097599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04217245786193</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023803254523792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01547499004275</v>
+        <v>1.014180158622102</v>
       </c>
       <c r="D25">
-        <v>1.036698880742615</v>
+        <v>1.034791717448616</v>
       </c>
       <c r="E25">
-        <v>1.020069177600815</v>
+        <v>1.019008749129973</v>
       </c>
       <c r="F25">
-        <v>1.042245034223981</v>
+        <v>1.040895164984381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056606930066579</v>
+        <v>1.055549666590223</v>
       </c>
       <c r="J25">
-        <v>1.03949255123328</v>
+        <v>1.038239549466379</v>
       </c>
       <c r="K25">
-        <v>1.048753005639373</v>
+        <v>1.046872919671822</v>
       </c>
       <c r="L25">
-        <v>1.032363733730753</v>
+        <v>1.031318975029388</v>
       </c>
       <c r="M25">
-        <v>1.054221127453506</v>
+        <v>1.052890153520443</v>
       </c>
       <c r="N25">
-        <v>1.016574906928649</v>
+        <v>1.01710229798497</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05148469368135</v>
+        <v>1.050431332049096</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045590689545901</v>
+        <v>1.044274805805135</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024455039299023</v>
       </c>
     </row>
   </sheetData>
